--- a/data/covid-19-pandas-output.xlsx
+++ b/data/covid-19-pandas-output.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Adj Sum Deaths" sheetId="2" r:id="rId2"/>
     <sheet name="Abs Daily Deaths" sheetId="3" r:id="rId3"/>
     <sheet name="Adj Daily Deaths" sheetId="4" r:id="rId4"/>
+    <sheet name="Adj Daily Deaths (mavg)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
   <si>
     <t>France</t>
   </si>
@@ -38,6 +39,12 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Date</t>
@@ -404,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -435,8 +442,14 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43891</v>
       </c>
@@ -461,8 +474,14 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43892</v>
       </c>
@@ -487,8 +506,14 @@
       <c r="H3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>43893</v>
       </c>
@@ -513,8 +538,14 @@
       <c r="H4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>43894</v>
       </c>
@@ -539,8 +570,14 @@
       <c r="H5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>43895</v>
       </c>
@@ -565,8 +602,14 @@
       <c r="H6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>43896</v>
       </c>
@@ -591,8 +634,14 @@
       <c r="H7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>43897</v>
       </c>
@@ -617,8 +666,14 @@
       <c r="H8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>43898</v>
       </c>
@@ -643,8 +698,14 @@
       <c r="H9">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>43899</v>
       </c>
@@ -669,8 +730,14 @@
       <c r="H10">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>43900</v>
       </c>
@@ -695,8 +762,14 @@
       <c r="H11">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>43901</v>
       </c>
@@ -721,8 +794,14 @@
       <c r="H12">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>43902</v>
       </c>
@@ -747,8 +826,14 @@
       <c r="H13">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>43903</v>
       </c>
@@ -773,8 +858,14 @@
       <c r="H14">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>43904</v>
       </c>
@@ -799,8 +890,14 @@
       <c r="H15">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>43905</v>
       </c>
@@ -825,8 +922,14 @@
       <c r="H16">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>43906</v>
       </c>
@@ -851,8 +954,14 @@
       <c r="H17">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>43907</v>
       </c>
@@ -877,8 +986,14 @@
       <c r="H18">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>43908</v>
       </c>
@@ -903,8 +1018,14 @@
       <c r="H19">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>43909</v>
       </c>
@@ -929,8 +1050,14 @@
       <c r="H20">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>34</v>
+      </c>
+      <c r="J20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>43910</v>
       </c>
@@ -955,8 +1082,14 @@
       <c r="H21">
         <v>244</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>42</v>
+      </c>
+      <c r="J21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>43911</v>
       </c>
@@ -981,8 +1114,14 @@
       <c r="H22">
         <v>307</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>60</v>
+      </c>
+      <c r="J22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>43912</v>
       </c>
@@ -1007,8 +1146,14 @@
       <c r="H23">
         <v>417</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>79</v>
+      </c>
+      <c r="J23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>43913</v>
       </c>
@@ -1033,8 +1178,14 @@
       <c r="H24">
         <v>557</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>122</v>
+      </c>
+      <c r="J24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>43914</v>
       </c>
@@ -1059,8 +1210,14 @@
       <c r="H25">
         <v>706</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>171</v>
+      </c>
+      <c r="J25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>43915</v>
       </c>
@@ -1085,8 +1242,14 @@
       <c r="H26">
         <v>942</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>254</v>
+      </c>
+      <c r="J26">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>43916</v>
       </c>
@@ -1111,8 +1274,14 @@
       <c r="H27">
         <v>1209</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>340</v>
+      </c>
+      <c r="J27">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>43917</v>
       </c>
@@ -1137,8 +1306,14 @@
       <c r="H28">
         <v>1581</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>440</v>
+      </c>
+      <c r="J28">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>43918</v>
       </c>
@@ -1163,8 +1338,14 @@
       <c r="H29">
         <v>2026</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>774</v>
+      </c>
+      <c r="J29">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>43919</v>
       </c>
@@ -1189,8 +1370,14 @@
       <c r="H30">
         <v>2467</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>904</v>
+      </c>
+      <c r="J30">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>43920</v>
       </c>
@@ -1215,8 +1402,14 @@
       <c r="H31">
         <v>2978</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>1044</v>
+      </c>
+      <c r="J31">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>43921</v>
       </c>
@@ -1241,13 +1434,19 @@
       <c r="H32">
         <v>3873</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>1246</v>
+      </c>
+      <c r="J32">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>43922</v>
       </c>
       <c r="B33">
-        <v>4032</v>
+        <v>4403</v>
       </c>
       <c r="C33">
         <v>920</v>
@@ -1267,8 +1466,14 @@
       <c r="H33">
         <v>4757</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>1611</v>
+      </c>
+      <c r="J33">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>43923</v>
       </c>
@@ -1293,8 +1498,14 @@
       <c r="H34">
         <v>5926</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>2063</v>
+      </c>
+      <c r="J34">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>43924</v>
       </c>
@@ -1319,8 +1530,14 @@
       <c r="H35">
         <v>7087</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>2639</v>
+      </c>
+      <c r="J35">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>43925</v>
       </c>
@@ -1345,8 +1562,14 @@
       <c r="H36">
         <v>8407</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>3117</v>
+      </c>
+      <c r="J36">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>43926</v>
       </c>
@@ -1371,8 +1594,14 @@
       <c r="H37">
         <v>9619</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>3691</v>
+      </c>
+      <c r="J37">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>43927</v>
       </c>
@@ -1397,8 +1626,14 @@
       <c r="H38">
         <v>10783</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>4389</v>
+      </c>
+      <c r="J38">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>43928</v>
       </c>
@@ -1423,8 +1658,14 @@
       <c r="H39">
         <v>12722</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>5373</v>
+      </c>
+      <c r="J39">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>43929</v>
       </c>
@@ -1448,6 +1689,268 @@
       </c>
       <c r="H40">
         <v>14695</v>
+      </c>
+      <c r="I40">
+        <v>6116</v>
+      </c>
+      <c r="J40">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B41">
+        <v>12210</v>
+      </c>
+      <c r="C41">
+        <v>2607</v>
+      </c>
+      <c r="D41">
+        <v>18279</v>
+      </c>
+      <c r="E41">
+        <v>15447</v>
+      </c>
+      <c r="F41">
+        <v>793</v>
+      </c>
+      <c r="G41">
+        <v>7978</v>
+      </c>
+      <c r="H41">
+        <v>16478</v>
+      </c>
+      <c r="I41">
+        <v>6994</v>
+      </c>
+      <c r="J41">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B42">
+        <v>13197</v>
+      </c>
+      <c r="C42">
+        <v>2767</v>
+      </c>
+      <c r="D42">
+        <v>18849</v>
+      </c>
+      <c r="E42">
+        <v>16081</v>
+      </c>
+      <c r="F42">
+        <v>870</v>
+      </c>
+      <c r="G42">
+        <v>8958</v>
+      </c>
+      <c r="H42">
+        <v>18586</v>
+      </c>
+      <c r="I42">
+        <v>7867</v>
+      </c>
+      <c r="J42">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B43">
+        <v>13832</v>
+      </c>
+      <c r="C43">
+        <v>2736</v>
+      </c>
+      <c r="D43">
+        <v>19468</v>
+      </c>
+      <c r="E43">
+        <v>16606</v>
+      </c>
+      <c r="F43">
+        <v>887</v>
+      </c>
+      <c r="G43">
+        <v>9875</v>
+      </c>
+      <c r="H43">
+        <v>20462</v>
+      </c>
+      <c r="I43">
+        <v>8623</v>
+      </c>
+      <c r="J43">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B44">
+        <v>14393</v>
+      </c>
+      <c r="C44">
+        <v>3022</v>
+      </c>
+      <c r="D44">
+        <v>19899</v>
+      </c>
+      <c r="E44">
+        <v>17209</v>
+      </c>
+      <c r="F44">
+        <v>899</v>
+      </c>
+      <c r="G44">
+        <v>10612</v>
+      </c>
+      <c r="H44">
+        <v>22019</v>
+      </c>
+      <c r="I44">
+        <v>9345</v>
+      </c>
+      <c r="J44">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B45">
+        <v>14967</v>
+      </c>
+      <c r="C45">
+        <v>3194</v>
+      </c>
+      <c r="D45">
+        <v>20465</v>
+      </c>
+      <c r="E45">
+        <v>17756</v>
+      </c>
+      <c r="F45">
+        <v>919</v>
+      </c>
+      <c r="G45">
+        <v>11329</v>
+      </c>
+      <c r="H45">
+        <v>23528</v>
+      </c>
+      <c r="I45">
+        <v>10058</v>
+      </c>
+      <c r="J45">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B46">
+        <v>15729</v>
+      </c>
+      <c r="C46">
+        <v>3294</v>
+      </c>
+      <c r="D46">
+        <v>21067</v>
+      </c>
+      <c r="E46">
+        <v>18056</v>
+      </c>
+      <c r="F46">
+        <v>1033</v>
+      </c>
+      <c r="G46">
+        <v>12107</v>
+      </c>
+      <c r="H46">
+        <v>25831</v>
+      </c>
+      <c r="I46">
+        <v>10842</v>
+      </c>
+      <c r="J46">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B47">
+        <v>17167</v>
+      </c>
+      <c r="C47">
+        <v>3804</v>
+      </c>
+      <c r="D47">
+        <v>21645</v>
+      </c>
+      <c r="E47">
+        <v>18708</v>
+      </c>
+      <c r="F47">
+        <v>1203</v>
+      </c>
+      <c r="G47">
+        <v>12868</v>
+      </c>
+      <c r="H47">
+        <v>28325</v>
+      </c>
+      <c r="I47">
+        <v>11617</v>
+      </c>
+      <c r="J47">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B48">
+        <v>17920</v>
+      </c>
+      <c r="C48">
+        <v>4052</v>
+      </c>
+      <c r="D48">
+        <v>22170</v>
+      </c>
+      <c r="E48">
+        <v>19315</v>
+      </c>
+      <c r="F48">
+        <v>1333</v>
+      </c>
+      <c r="G48">
+        <v>13729</v>
+      </c>
+      <c r="H48">
+        <v>32916</v>
+      </c>
+      <c r="I48">
+        <v>14832</v>
+      </c>
+      <c r="J48">
+        <v>4857</v>
       </c>
     </row>
   </sheetData>
@@ -1457,15 +1960,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1488,8 +1991,14 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43891</v>
       </c>
@@ -1514,8 +2023,14 @@
       <c r="H2">
         <v>0.1519457025557057</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43892</v>
       </c>
@@ -1540,8 +2055,14 @@
       <c r="H3">
         <v>0.9116742153342345</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>43893</v>
       </c>
@@ -1566,8 +2087,14 @@
       <c r="H4">
         <v>1.06361991788994</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>43894</v>
       </c>
@@ -1592,8 +2119,14 @@
       <c r="H5">
         <v>1.671402728112763</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>43895</v>
       </c>
@@ -1618,8 +2151,14 @@
       <c r="H6">
         <v>1.823348430668469</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>43896</v>
       </c>
@@ -1644,8 +2183,14 @@
       <c r="H7">
         <v>2.12723983577988</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>43897</v>
       </c>
@@ -1670,8 +2215,14 @@
       <c r="H8">
         <v>2.583076943446998</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>43898</v>
       </c>
@@ -1696,8 +2247,14 @@
       <c r="H9">
         <v>3.190859753669821</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>43899</v>
       </c>
@@ -1722,8 +2279,14 @@
       <c r="H10">
         <v>3.342805456225526</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>43900</v>
       </c>
@@ -1748,8 +2311,14 @@
       <c r="H11">
         <v>4.254479671559761</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>43901</v>
       </c>
@@ -1774,8 +2343,14 @@
       <c r="H12">
         <v>5.470045292005407</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>12.99902611296362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>43902</v>
       </c>
@@ -1800,8 +2375,14 @@
       <c r="H13">
         <v>6.07782810222823</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>12.99902611296362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>43903</v>
       </c>
@@ -1826,8 +2407,14 @@
       <c r="H14">
         <v>7.14144802011817</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>12.99902611296362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>43904</v>
       </c>
@@ -1852,8 +2439,14 @@
       <c r="H15">
         <v>8.20506793800811</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>4.232255159277749</v>
+      </c>
+      <c r="J15">
+        <v>17.33203481728482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>43905</v>
       </c>
@@ -1878,8 +2471,14 @@
       <c r="H16">
         <v>9.572579261009462</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>4.232255159277749</v>
+      </c>
+      <c r="J16">
+        <v>17.33203481728482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>43906</v>
       </c>
@@ -1904,8 +2503,14 @@
       <c r="H17">
         <v>12.91538471723499</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>21.16127579638874</v>
+      </c>
+      <c r="J17">
+        <v>21.66504352160603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>43907</v>
       </c>
@@ -1930,8 +2535,14 @@
       <c r="H18">
         <v>16.41013587601622</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>27.50965853530537</v>
+      </c>
+      <c r="J18">
+        <v>43.33008704321205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>43908</v>
       </c>
@@ -1956,8 +2567,14 @@
       <c r="H19">
         <v>17.92959290157328</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>35.97416885386086</v>
+      </c>
+      <c r="J19">
+        <v>60.66212186049687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>43909</v>
       </c>
@@ -1982,8 +2599,14 @@
       <c r="H20">
         <v>30.38914051114115</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>71.94833770772172</v>
+      </c>
+      <c r="J20">
+        <v>90.99318279074531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>43910</v>
       </c>
@@ -2008,8 +2631,14 @@
       <c r="H21">
         <v>37.0747514235922</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>88.87735834483271</v>
+      </c>
+      <c r="J21">
+        <v>160.3213220598846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>43911</v>
       </c>
@@ -2034,8 +2663,14 @@
       <c r="H22">
         <v>46.64733068460166</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>126.9676547783325</v>
+      </c>
+      <c r="J22">
+        <v>290.3115831895208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>43912</v>
       </c>
@@ -2060,8 +2695,14 @@
       <c r="H23">
         <v>63.3613579657293</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>167.1740787914711</v>
+      </c>
+      <c r="J23">
+        <v>324.9756528240904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>43913</v>
       </c>
@@ -2086,8 +2727,14 @@
       <c r="H24">
         <v>84.6337563235281</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>258.1675647159427</v>
+      </c>
+      <c r="J24">
+        <v>381.3047659802661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>43914</v>
       </c>
@@ -2112,8 +2759,14 @@
       <c r="H25">
         <v>107.2736660043283</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>361.8578161182475</v>
+      </c>
+      <c r="J25">
+        <v>528.627061927187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>43915</v>
       </c>
@@ -2138,8 +2791,14 @@
       <c r="H26">
         <v>143.1328518074748</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>537.4964052282741</v>
+      </c>
+      <c r="J26">
+        <v>771.2755493691745</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>43916</v>
       </c>
@@ -2164,8 +2823,14 @@
       <c r="H27">
         <v>183.7023543898482</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>719.4833770772173</v>
+      </c>
+      <c r="J27">
+        <v>953.2619149506652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>43917</v>
       </c>
@@ -2190,8 +2855,14 @@
       <c r="H28">
         <v>240.2261557405708</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>931.0961350411047</v>
+      </c>
+      <c r="J28">
+        <v>1252.239515548828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>43918</v>
       </c>
@@ -2216,8 +2887,14 @@
       <c r="H29">
         <v>307.8419933778599</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>1637.882746640489</v>
+      </c>
+      <c r="J29">
+        <v>1529.552072625386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>43919</v>
       </c>
@@ -2242,8 +2919,14 @@
       <c r="H30">
         <v>374.8500482049261</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>1912.979331993542</v>
+      </c>
+      <c r="J30">
+        <v>1867.52675156244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>43920</v>
       </c>
@@ -2268,8 +2951,14 @@
       <c r="H31">
         <v>452.4943022108917</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>2209.237193142985</v>
+      </c>
+      <c r="J31">
+        <v>2222.833465316779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>43921</v>
       </c>
@@ -2294,13 +2983,19 @@
       <c r="H32">
         <v>588.4857059982484</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>2636.694964230037</v>
+      </c>
+      <c r="J32">
+        <v>3054.77113654645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>43922</v>
       </c>
       <c r="B33">
-        <v>3095.360550468111</v>
+        <v>3380.176712229933</v>
       </c>
       <c r="C33">
         <v>550.7857641420891</v>
@@ -2320,8 +3015,14 @@
       <c r="H33">
         <v>722.8057070574922</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>3409.081530798227</v>
+      </c>
+      <c r="J33">
+        <v>3587.731207177958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>43923</v>
       </c>
@@ -2346,8 +3047,14 @@
       <c r="H34">
         <v>900.4302333451122</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>4365.571196794997</v>
+      </c>
+      <c r="J34">
+        <v>4380.671800068739</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>43924</v>
       </c>
@@ -2372,8 +3079,14 @@
       <c r="H35">
         <v>1076.839194012287</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>5584.46068266699</v>
+      </c>
+      <c r="J35">
+        <v>4952.628949039137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>43925</v>
       </c>
@@ -2398,8 +3111,14 @@
       <c r="H36">
         <v>1277.407521385818</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>6595.969665734371</v>
+      </c>
+      <c r="J36">
+        <v>5559.250167644106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>43926</v>
       </c>
@@ -2424,8 +3143,14 @@
       <c r="H37">
         <v>1461.565712883334</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>7810.626896447086</v>
+      </c>
+      <c r="J37">
+        <v>6269.863595152784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>43927</v>
       </c>
@@ -2450,8 +3175,14 @@
       <c r="H38">
         <v>1638.430510658175</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>9287.683947035019</v>
+      </c>
+      <c r="J38">
+        <v>7071.470205452207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>43928</v>
       </c>
@@ -2476,8 +3207,14 @@
       <c r="H39">
         <v>1933.053227913688</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>11369.95348539967</v>
+      </c>
+      <c r="J39">
+        <v>8817.672713293652</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>43929</v>
       </c>
@@ -2501,6 +3238,268 @@
       </c>
       <c r="H40">
         <v>2232.842099056096</v>
+      </c>
+      <c r="I40">
+        <v>12942.23627707136</v>
+      </c>
+      <c r="J40">
+        <v>9705.939497679499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B41">
+        <v>9373.599286015782</v>
+      </c>
+      <c r="C41">
+        <v>1560.759225128724</v>
+      </c>
+      <c r="D41">
+        <v>15094.11414271674</v>
+      </c>
+      <c r="E41">
+        <v>16525.52800918129</v>
+      </c>
+      <c r="F41">
+        <v>3950.623286797017</v>
+      </c>
+      <c r="G41">
+        <v>5906.990211381252</v>
+      </c>
+      <c r="H41">
+        <v>2503.761286712919</v>
+      </c>
+      <c r="I41">
+        <v>14800.19629199429</v>
+      </c>
+      <c r="J41">
+        <v>10932.1809610024</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B42">
+        <v>10131.31775409912</v>
+      </c>
+      <c r="C42">
+        <v>1656.548053675174</v>
+      </c>
+      <c r="D42">
+        <v>15564.79881153607</v>
+      </c>
+      <c r="E42">
+        <v>17203.7946472224</v>
+      </c>
+      <c r="F42">
+        <v>4334.227313383864</v>
+      </c>
+      <c r="G42">
+        <v>6632.591916965814</v>
+      </c>
+      <c r="H42">
+        <v>2824.062827700347</v>
+      </c>
+      <c r="I42">
+        <v>16647.57566901902</v>
+      </c>
+      <c r="J42">
+        <v>13081.35327834572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B43">
+        <v>10618.80633285588</v>
+      </c>
+      <c r="C43">
+        <v>1637.9889681443</v>
+      </c>
+      <c r="D43">
+        <v>16075.94584662233</v>
+      </c>
+      <c r="E43">
+        <v>17765.45077493782</v>
+      </c>
+      <c r="F43">
+        <v>4418.91911146148</v>
+      </c>
+      <c r="G43">
+        <v>7311.547798619938</v>
+      </c>
+      <c r="H43">
+        <v>3109.112965694851</v>
+      </c>
+      <c r="I43">
+        <v>18247.36811922601</v>
+      </c>
+      <c r="J43">
+        <v>14498.24712465875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B44">
+        <v>11049.48521897012</v>
+      </c>
+      <c r="C44">
+        <v>1809.211499171079</v>
+      </c>
+      <c r="D44">
+        <v>16431.84951725589</v>
+      </c>
+      <c r="E44">
+        <v>18410.55295591382</v>
+      </c>
+      <c r="F44">
+        <v>4478.701557163326</v>
+      </c>
+      <c r="G44">
+        <v>7857.229897615674</v>
+      </c>
+      <c r="H44">
+        <v>3345.692424574085</v>
+      </c>
+      <c r="I44">
+        <v>19775.21223172528</v>
+      </c>
+      <c r="J44">
+        <v>15598.83133555634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B45">
+        <v>11490.14418622426</v>
+      </c>
+      <c r="C45">
+        <v>1912.184489858513</v>
+      </c>
+      <c r="D45">
+        <v>16899.23113576772</v>
+      </c>
+      <c r="E45">
+        <v>18995.74514993351</v>
+      </c>
+      <c r="F45">
+        <v>4578.338966666404</v>
+      </c>
+      <c r="G45">
+        <v>8388.103798538257</v>
+      </c>
+      <c r="H45">
+        <v>3574.978489730645</v>
+      </c>
+      <c r="I45">
+        <v>21284.0111960078</v>
+      </c>
+      <c r="J45">
+        <v>16911.73297296566</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B46">
+        <v>12075.13048073237</v>
+      </c>
+      <c r="C46">
+        <v>1972.052507700045</v>
+      </c>
+      <c r="D46">
+        <v>17396.34020704708</v>
+      </c>
+      <c r="E46">
+        <v>19316.69150862805</v>
+      </c>
+      <c r="F46">
+        <v>5146.272200833945</v>
+      </c>
+      <c r="G46">
+        <v>8964.142703583959</v>
+      </c>
+      <c r="H46">
+        <v>3924.909442716435</v>
+      </c>
+      <c r="I46">
+        <v>22943.05521844468</v>
+      </c>
+      <c r="J46">
+        <v>18012.31718386325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B47">
+        <v>13179.08099451539</v>
+      </c>
+      <c r="C47">
+        <v>2277.379398691855</v>
+      </c>
+      <c r="D47">
+        <v>17873.63097648142</v>
+      </c>
+      <c r="E47">
+        <v>20014.21492819082</v>
+      </c>
+      <c r="F47">
+        <v>5993.190181610103</v>
+      </c>
+      <c r="G47">
+        <v>9527.59464026748</v>
+      </c>
+      <c r="H47">
+        <v>4303.862024890365</v>
+      </c>
+      <c r="I47">
+        <v>24583.0540926648</v>
+      </c>
+      <c r="J47">
+        <v>19238.55864718615</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B48">
+        <v>13757.15800208049</v>
+      </c>
+      <c r="C48">
+        <v>2425.852082938853</v>
+      </c>
+      <c r="D48">
+        <v>18307.15632934133</v>
+      </c>
+      <c r="E48">
+        <v>20663.59639394942</v>
+      </c>
+      <c r="F48">
+        <v>6640.833343380105</v>
+      </c>
+      <c r="G48">
+        <v>10165.08756731677</v>
+      </c>
+      <c r="H48">
+        <v>5001.444745323611</v>
+      </c>
+      <c r="I48">
+        <v>31386.40426120378</v>
+      </c>
+      <c r="J48">
+        <v>21045.42327688809</v>
       </c>
     </row>
   </sheetData>
@@ -2510,15 +3509,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2541,13 +3540,19 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43891</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43892</v>
       </c>
@@ -2572,8 +3577,14 @@
       <c r="H3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>43893</v>
       </c>
@@ -2598,8 +3609,14 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>43894</v>
       </c>
@@ -2624,8 +3641,14 @@
       <c r="H5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>43895</v>
       </c>
@@ -2650,8 +3673,14 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>43896</v>
       </c>
@@ -2676,8 +3705,14 @@
       <c r="H7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>43897</v>
       </c>
@@ -2702,8 +3737,14 @@
       <c r="H8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>43898</v>
       </c>
@@ -2728,8 +3769,14 @@
       <c r="H9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>43899</v>
       </c>
@@ -2754,8 +3801,14 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>43900</v>
       </c>
@@ -2780,8 +3833,14 @@
       <c r="H11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>43901</v>
       </c>
@@ -2806,8 +3865,14 @@
       <c r="H12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>43902</v>
       </c>
@@ -2832,8 +3897,14 @@
       <c r="H13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>43903</v>
       </c>
@@ -2858,8 +3929,14 @@
       <c r="H14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>43904</v>
       </c>
@@ -2884,8 +3961,14 @@
       <c r="H15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>43905</v>
       </c>
@@ -2910,8 +3993,14 @@
       <c r="H16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>43906</v>
       </c>
@@ -2936,8 +4025,14 @@
       <c r="H17">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>43907</v>
       </c>
@@ -2962,8 +4057,14 @@
       <c r="H18">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>43908</v>
       </c>
@@ -2988,8 +4089,14 @@
       <c r="H19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>43909</v>
       </c>
@@ -3014,8 +4121,14 @@
       <c r="H20">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>43910</v>
       </c>
@@ -3040,8 +4153,14 @@
       <c r="H21">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>43911</v>
       </c>
@@ -3066,8 +4185,14 @@
       <c r="H22">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>18</v>
+      </c>
+      <c r="J22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>43912</v>
       </c>
@@ -3092,8 +4217,14 @@
       <c r="H23">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>19</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>43913</v>
       </c>
@@ -3118,8 +4249,14 @@
       <c r="H24">
         <v>140</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>43</v>
+      </c>
+      <c r="J24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>43914</v>
       </c>
@@ -3144,8 +4281,14 @@
       <c r="H25">
         <v>149</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>49</v>
+      </c>
+      <c r="J25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>43915</v>
       </c>
@@ -3170,8 +4313,14 @@
       <c r="H26">
         <v>236</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>83</v>
+      </c>
+      <c r="J26">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>43916</v>
       </c>
@@ -3196,8 +4345,14 @@
       <c r="H27">
         <v>267</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>86</v>
+      </c>
+      <c r="J27">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>43917</v>
       </c>
@@ -3222,8 +4377,14 @@
       <c r="H28">
         <v>372</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>43918</v>
       </c>
@@ -3248,8 +4409,14 @@
       <c r="H29">
         <v>445</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>334</v>
+      </c>
+      <c r="J29">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>43919</v>
       </c>
@@ -3274,8 +4441,14 @@
       <c r="H30">
         <v>441</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>130</v>
+      </c>
+      <c r="J30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>43920</v>
       </c>
@@ -3300,8 +4473,14 @@
       <c r="H31">
         <v>511</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>140</v>
+      </c>
+      <c r="J31">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>43921</v>
       </c>
@@ -3326,13 +4505,19 @@
       <c r="H32">
         <v>895</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>202</v>
+      </c>
+      <c r="J32">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>43922</v>
       </c>
       <c r="B33">
-        <v>509</v>
+        <v>880</v>
       </c>
       <c r="C33">
         <v>145</v>
@@ -3352,13 +4537,19 @@
       <c r="H33">
         <v>884</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>365</v>
+      </c>
+      <c r="J33">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>43923</v>
       </c>
       <c r="B34">
-        <v>1355</v>
+        <v>984</v>
       </c>
       <c r="C34">
         <v>187</v>
@@ -3378,8 +4569,14 @@
       <c r="H34">
         <v>1169</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>452</v>
+      </c>
+      <c r="J34">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>43924</v>
       </c>
@@ -3404,8 +4601,14 @@
       <c r="H35">
         <v>1161</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>576</v>
+      </c>
+      <c r="J35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>43925</v>
       </c>
@@ -3430,8 +4633,14 @@
       <c r="H36">
         <v>1320</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>478</v>
+      </c>
+      <c r="J36">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>43926</v>
       </c>
@@ -3456,8 +4665,14 @@
       <c r="H37">
         <v>1212</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>574</v>
+      </c>
+      <c r="J37">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>43927</v>
       </c>
@@ -3482,8 +4697,14 @@
       <c r="H38">
         <v>1164</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>698</v>
+      </c>
+      <c r="J38">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>43928</v>
       </c>
@@ -3508,8 +4729,14 @@
       <c r="H39">
         <v>1939</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>984</v>
+      </c>
+      <c r="J39">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>43929</v>
       </c>
@@ -3533,6 +4760,268 @@
       </c>
       <c r="H40">
         <v>1973</v>
+      </c>
+      <c r="I40">
+        <v>743</v>
+      </c>
+      <c r="J40">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B41">
+        <v>1341</v>
+      </c>
+      <c r="C41">
+        <v>258</v>
+      </c>
+      <c r="D41">
+        <v>610</v>
+      </c>
+      <c r="E41">
+        <v>655</v>
+      </c>
+      <c r="F41">
+        <v>106</v>
+      </c>
+      <c r="G41">
+        <v>881</v>
+      </c>
+      <c r="H41">
+        <v>1783</v>
+      </c>
+      <c r="I41">
+        <v>878</v>
+      </c>
+      <c r="J41">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B42">
+        <v>987</v>
+      </c>
+      <c r="C42">
+        <v>160</v>
+      </c>
+      <c r="D42">
+        <v>570</v>
+      </c>
+      <c r="E42">
+        <v>634</v>
+      </c>
+      <c r="F42">
+        <v>77</v>
+      </c>
+      <c r="G42">
+        <v>980</v>
+      </c>
+      <c r="H42">
+        <v>2108</v>
+      </c>
+      <c r="I42">
+        <v>873</v>
+      </c>
+      <c r="J42">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B43">
+        <v>635</v>
+      </c>
+      <c r="C43">
+        <v>-31</v>
+      </c>
+      <c r="D43">
+        <v>619</v>
+      </c>
+      <c r="E43">
+        <v>525</v>
+      </c>
+      <c r="F43">
+        <v>17</v>
+      </c>
+      <c r="G43">
+        <v>917</v>
+      </c>
+      <c r="H43">
+        <v>1876</v>
+      </c>
+      <c r="I43">
+        <v>756</v>
+      </c>
+      <c r="J43">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B44">
+        <v>561</v>
+      </c>
+      <c r="C44">
+        <v>286</v>
+      </c>
+      <c r="D44">
+        <v>431</v>
+      </c>
+      <c r="E44">
+        <v>603</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>737</v>
+      </c>
+      <c r="H44">
+        <v>1557</v>
+      </c>
+      <c r="I44">
+        <v>722</v>
+      </c>
+      <c r="J44">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B45">
+        <v>574</v>
+      </c>
+      <c r="C45">
+        <v>172</v>
+      </c>
+      <c r="D45">
+        <v>566</v>
+      </c>
+      <c r="E45">
+        <v>547</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>717</v>
+      </c>
+      <c r="H45">
+        <v>1509</v>
+      </c>
+      <c r="I45">
+        <v>713</v>
+      </c>
+      <c r="J45">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B46">
+        <v>762</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>602</v>
+      </c>
+      <c r="E46">
+        <v>300</v>
+      </c>
+      <c r="F46">
+        <v>114</v>
+      </c>
+      <c r="G46">
+        <v>778</v>
+      </c>
+      <c r="H46">
+        <v>2303</v>
+      </c>
+      <c r="I46">
+        <v>784</v>
+      </c>
+      <c r="J46">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B47">
+        <v>1438</v>
+      </c>
+      <c r="C47">
+        <v>510</v>
+      </c>
+      <c r="D47">
+        <v>578</v>
+      </c>
+      <c r="E47">
+        <v>652</v>
+      </c>
+      <c r="F47">
+        <v>170</v>
+      </c>
+      <c r="G47">
+        <v>761</v>
+      </c>
+      <c r="H47">
+        <v>2494</v>
+      </c>
+      <c r="I47">
+        <v>775</v>
+      </c>
+      <c r="J47">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B48">
+        <v>753</v>
+      </c>
+      <c r="C48">
+        <v>248</v>
+      </c>
+      <c r="D48">
+        <v>525</v>
+      </c>
+      <c r="E48">
+        <v>607</v>
+      </c>
+      <c r="F48">
+        <v>130</v>
+      </c>
+      <c r="G48">
+        <v>861</v>
+      </c>
+      <c r="H48">
+        <v>4591</v>
+      </c>
+      <c r="I48">
+        <v>3215</v>
+      </c>
+      <c r="J48">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3542,15 +5031,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3573,13 +5062,19 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43891</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43892</v>
       </c>
@@ -3604,8 +5099,14 @@
       <c r="H3">
         <v>0.7597285127785287</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>43893</v>
       </c>
@@ -3630,8 +5131,14 @@
       <c r="H4">
         <v>0.1519457025557057</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>43894</v>
       </c>
@@ -3656,8 +5163,14 @@
       <c r="H5">
         <v>0.607782810222823</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>43895</v>
       </c>
@@ -3682,8 +5195,14 @@
       <c r="H6">
         <v>0.1519457025557057</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>43896</v>
       </c>
@@ -3708,8 +5227,14 @@
       <c r="H7">
         <v>0.3038914051114115</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>43897</v>
       </c>
@@ -3734,8 +5259,14 @@
       <c r="H8">
         <v>0.4558371076671173</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>43898</v>
       </c>
@@ -3760,8 +5291,14 @@
       <c r="H9">
         <v>0.607782810222823</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>43899</v>
       </c>
@@ -3786,8 +5323,14 @@
       <c r="H10">
         <v>0.1519457025557057</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>43900</v>
       </c>
@@ -3812,8 +5355,14 @@
       <c r="H11">
         <v>0.9116742153342345</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>43901</v>
       </c>
@@ -3838,8 +5387,14 @@
       <c r="H12">
         <v>1.215565620445646</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>12.99902611296362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>43902</v>
       </c>
@@ -3864,8 +5419,14 @@
       <c r="H13">
         <v>0.607782810222823</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>43903</v>
       </c>
@@ -3890,8 +5451,14 @@
       <c r="H14">
         <v>1.06361991788994</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>43904</v>
       </c>
@@ -3916,8 +5483,14 @@
       <c r="H15">
         <v>1.06361991788994</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>4.232255159277749</v>
+      </c>
+      <c r="J15">
+        <v>4.333008704321205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>43905</v>
       </c>
@@ -3942,8 +5515,14 @@
       <c r="H16">
         <v>1.367511323001352</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>43906</v>
       </c>
@@ -3968,8 +5547,14 @@
       <c r="H17">
         <v>3.342805456225526</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>16.92902063711099</v>
+      </c>
+      <c r="J17">
+        <v>4.333008704321205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>43907</v>
       </c>
@@ -3994,8 +5579,14 @@
       <c r="H18">
         <v>3.494751158781232</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>6.348382738916623</v>
+      </c>
+      <c r="J18">
+        <v>21.66504352160603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>43908</v>
       </c>
@@ -4020,8 +5611,14 @@
       <c r="H19">
         <v>1.519457025557057</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>8.464510318555497</v>
+      </c>
+      <c r="J19">
+        <v>17.33203481728482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>43909</v>
       </c>
@@ -4046,8 +5643,14 @@
       <c r="H20">
         <v>12.45954760956787</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>35.97416885386086</v>
+      </c>
+      <c r="J20">
+        <v>30.33106093024844</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>43910</v>
       </c>
@@ -4072,8 +5675,14 @@
       <c r="H21">
         <v>6.685610912451053</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>16.92902063711099</v>
+      </c>
+      <c r="J21">
+        <v>69.32813926913929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>43911</v>
       </c>
@@ -4098,8 +5707,14 @@
       <c r="H22">
         <v>9.572579261009462</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>38.09029643349974</v>
+      </c>
+      <c r="J22">
+        <v>129.9902611296362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>43912</v>
       </c>
@@ -4124,8 +5739,14 @@
       <c r="H23">
         <v>16.71402728112763</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>40.20642401313862</v>
+      </c>
+      <c r="J23">
+        <v>34.66406963456964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>43913</v>
       </c>
@@ -4150,8 +5771,14 @@
       <c r="H24">
         <v>21.2723983577988</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>90.9934859244716</v>
+      </c>
+      <c r="J24">
+        <v>56.32911315617567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>43914</v>
       </c>
@@ -4176,8 +5803,14 @@
       <c r="H25">
         <v>22.63990968080016</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>103.6902514023048</v>
+      </c>
+      <c r="J25">
+        <v>147.322295946921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>43915</v>
       </c>
@@ -4202,8 +5835,14 @@
       <c r="H26">
         <v>35.85918580314656</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>175.6385891100266</v>
+      </c>
+      <c r="J26">
+        <v>242.6484874419875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>43916</v>
       </c>
@@ -4228,8 +5867,14 @@
       <c r="H27">
         <v>40.56950258237343</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>181.9869718489432</v>
+      </c>
+      <c r="J27">
+        <v>181.9863655814906</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>43917</v>
       </c>
@@ -4254,8 +5899,14 @@
       <c r="H28">
         <v>56.52380135072254</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>211.6127579638874</v>
+      </c>
+      <c r="J28">
+        <v>298.9776005981632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>43918</v>
       </c>
@@ -4280,8 +5931,14 @@
       <c r="H29">
         <v>67.61583763728906</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>706.7866115993841</v>
+      </c>
+      <c r="J29">
+        <v>277.3125570765571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>43919</v>
       </c>
@@ -4306,8 +5963,14 @@
       <c r="H30">
         <v>67.00805482706623</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>275.0965853530537</v>
+      </c>
+      <c r="J30">
+        <v>337.974678937054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>43920</v>
       </c>
@@ -4332,8 +5995,14 @@
       <c r="H31">
         <v>77.64425400596564</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>296.2578611494424</v>
+      </c>
+      <c r="J31">
+        <v>355.3067137543388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>43921</v>
       </c>
@@ -4358,13 +6027,19 @@
       <c r="H32">
         <v>135.9914037873566</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>427.4577710870526</v>
+      </c>
+      <c r="J32">
+        <v>831.9376712296714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>43922</v>
       </c>
       <c r="B33">
-        <v>390.75856155463</v>
+        <v>675.5747233164527</v>
       </c>
       <c r="C33">
         <v>86.80862587022055</v>
@@ -4384,13 +6059,19 @@
       <c r="H33">
         <v>134.3200010592439</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>772.3865665681891</v>
+      </c>
+      <c r="J33">
+        <v>532.9600706315083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>43923</v>
       </c>
       <c r="B34">
-        <v>1040.231534197493</v>
+        <v>755.41537243567</v>
       </c>
       <c r="C34">
         <v>111.9531933636638</v>
@@ -4410,8 +6091,14 @@
       <c r="H34">
         <v>177.62452628762</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>956.4896659967712</v>
+      </c>
+      <c r="J34">
+        <v>792.9405928907805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>43924</v>
       </c>
@@ -4436,8 +6123,14 @@
       <c r="H35">
         <v>176.4089606671744</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>1218.889485871992</v>
+      </c>
+      <c r="J35">
+        <v>571.9571489703991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>43925</v>
       </c>
@@ -4462,8 +6155,14 @@
       <c r="H36">
         <v>200.5683273735316</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>1011.508983067382</v>
+      </c>
+      <c r="J36">
+        <v>606.6212186049687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>43926</v>
       </c>
@@ -4488,8 +6187,14 @@
       <c r="H37">
         <v>184.1581914975154</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>1214.657230712714</v>
+      </c>
+      <c r="J37">
+        <v>710.6134275086777</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>43927</v>
       </c>
@@ -4514,8 +6219,14 @@
       <c r="H38">
         <v>176.8647977748415</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>1477.057050587934</v>
+      </c>
+      <c r="J38">
+        <v>801.606610299423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>43928</v>
       </c>
@@ -4540,8 +6251,14 @@
       <c r="H39">
         <v>294.6227172555135</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>2082.269538364652</v>
+      </c>
+      <c r="J39">
+        <v>1746.202507841446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>43929</v>
       </c>
@@ -4565,6 +6282,1682 @@
       </c>
       <c r="H40">
         <v>299.7888711424075</v>
+      </c>
+      <c r="I40">
+        <v>1572.282791671684</v>
+      </c>
+      <c r="J40">
+        <v>888.2667843858471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B41">
+        <v>1029.483754508367</v>
+      </c>
+      <c r="C41">
+        <v>154.459486031151</v>
+      </c>
+      <c r="D41">
+        <v>503.7151718943713</v>
+      </c>
+      <c r="E41">
+        <v>700.7328831497214</v>
+      </c>
+      <c r="F41">
+        <v>528.0782703663099</v>
+      </c>
+      <c r="G41">
+        <v>652.3011251224472</v>
+      </c>
+      <c r="H41">
+        <v>270.9191876568233</v>
+      </c>
+      <c r="I41">
+        <v>1857.960014922932</v>
+      </c>
+      <c r="J41">
+        <v>1226.241463322901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B42">
+        <v>757.7184680833396</v>
+      </c>
+      <c r="C42">
+        <v>95.78882854645028</v>
+      </c>
+      <c r="D42">
+        <v>470.6846688193306</v>
+      </c>
+      <c r="E42">
+        <v>678.2666380411043</v>
+      </c>
+      <c r="F42">
+        <v>383.6040265868478</v>
+      </c>
+      <c r="G42">
+        <v>725.601705584561</v>
+      </c>
+      <c r="H42">
+        <v>320.3015409874277</v>
+      </c>
+      <c r="I42">
+        <v>1847.379377024737</v>
+      </c>
+      <c r="J42">
+        <v>2149.172317343318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B43">
+        <v>487.4885787567585</v>
+      </c>
+      <c r="C43">
+        <v>-18.55908553087474</v>
+      </c>
+      <c r="D43">
+        <v>511.1470350862555</v>
+      </c>
+      <c r="E43">
+        <v>561.6561277154256</v>
+      </c>
+      <c r="F43">
+        <v>84.69179807761574</v>
+      </c>
+      <c r="G43">
+        <v>678.9558816541249</v>
+      </c>
+      <c r="H43">
+        <v>285.050137994504</v>
+      </c>
+      <c r="I43">
+        <v>1599.792450206989</v>
+      </c>
+      <c r="J43">
+        <v>1416.893846313034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B44">
+        <v>430.6788861142387</v>
+      </c>
+      <c r="C44">
+        <v>171.2225310267798</v>
+      </c>
+      <c r="D44">
+        <v>355.903670633564</v>
+      </c>
+      <c r="E44">
+        <v>645.1021809760031</v>
+      </c>
+      <c r="F44">
+        <v>59.78244570184641</v>
+      </c>
+      <c r="G44">
+        <v>545.6820989957362</v>
+      </c>
+      <c r="H44">
+        <v>236.5794588792338</v>
+      </c>
+      <c r="I44">
+        <v>1527.844112499267</v>
+      </c>
+      <c r="J44">
+        <v>1100.584210897586</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B45">
+        <v>440.6589672541407</v>
+      </c>
+      <c r="C45">
+        <v>102.972990687434</v>
+      </c>
+      <c r="D45">
+        <v>467.3816185118265</v>
+      </c>
+      <c r="E45">
+        <v>585.192194019691</v>
+      </c>
+      <c r="F45">
+        <v>99.63740950307735</v>
+      </c>
+      <c r="G45">
+        <v>530.8739009225819</v>
+      </c>
+      <c r="H45">
+        <v>229.28606515656</v>
+      </c>
+      <c r="I45">
+        <v>1508.798964282517</v>
+      </c>
+      <c r="J45">
+        <v>1312.901637409325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B46">
+        <v>584.9862945081102</v>
+      </c>
+      <c r="C46">
+        <v>59.86801784153142</v>
+      </c>
+      <c r="D46">
+        <v>497.1090712793631</v>
+      </c>
+      <c r="E46">
+        <v>320.9463586945289</v>
+      </c>
+      <c r="F46">
+        <v>567.9332341675408</v>
+      </c>
+      <c r="G46">
+        <v>576.0389050457026</v>
+      </c>
+      <c r="H46">
+        <v>349.9309529857903</v>
+      </c>
+      <c r="I46">
+        <v>1659.044022436877</v>
+      </c>
+      <c r="J46">
+        <v>1100.584210897586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B47">
+        <v>1103.950513783022</v>
+      </c>
+      <c r="C47">
+        <v>305.3268909918102</v>
+      </c>
+      <c r="D47">
+        <v>477.2907694343387</v>
+      </c>
+      <c r="E47">
+        <v>697.5234195627761</v>
+      </c>
+      <c r="F47">
+        <v>846.9179807761574</v>
+      </c>
+      <c r="G47">
+        <v>563.4519366835214</v>
+      </c>
+      <c r="H47">
+        <v>378.9525821739301</v>
+      </c>
+      <c r="I47">
+        <v>1639.998874220128</v>
+      </c>
+      <c r="J47">
+        <v>1226.241463322901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B48">
+        <v>578.0770075651011</v>
+      </c>
+      <c r="C48">
+        <v>148.4726842469979</v>
+      </c>
+      <c r="D48">
+        <v>433.5253528599097</v>
+      </c>
+      <c r="E48">
+        <v>649.3814657585967</v>
+      </c>
+      <c r="F48">
+        <v>647.6431617700027</v>
+      </c>
+      <c r="G48">
+        <v>637.4929270492929</v>
+      </c>
+      <c r="H48">
+        <v>697.5827204332451</v>
+      </c>
+      <c r="I48">
+        <v>6803.350168538981</v>
+      </c>
+      <c r="J48">
+        <v>1806.864629701943</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B7">
+        <v>1.074777968912538</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>26.91986000615821</v>
+      </c>
+      <c r="E7">
+        <v>1.06982119564843</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.2961639614630861</v>
+      </c>
+      <c r="H7">
+        <v>0.3950588266448349</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B8">
+        <v>1.228317678757187</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>29.89260528291188</v>
+      </c>
+      <c r="E8">
+        <v>2.139642391296859</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.2961639614630861</v>
+      </c>
+      <c r="H8">
+        <v>0.3342805456225527</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B9">
+        <v>2.303095647669725</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>47.39877191268347</v>
+      </c>
+      <c r="E9">
+        <v>3.423427826074975</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.4442459421946292</v>
+      </c>
+      <c r="H9">
+        <v>0.4254479671559762</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B10">
+        <v>2.303095647669725</v>
+      </c>
+      <c r="C10">
+        <v>0.2394720713661257</v>
+      </c>
+      <c r="D10">
+        <v>58.79429547357253</v>
+      </c>
+      <c r="E10">
+        <v>5.563070217371833</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.5923279229261722</v>
+      </c>
+      <c r="H10">
+        <v>0.3342805456225527</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B11">
+        <v>4.145572165805505</v>
+      </c>
+      <c r="C11">
+        <v>0.2394720713661257</v>
+      </c>
+      <c r="D11">
+        <v>79.76866492622339</v>
+      </c>
+      <c r="E11">
+        <v>6.84685565214995</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.7404099036577152</v>
+      </c>
+      <c r="H11">
+        <v>0.4862262481782585</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B12">
+        <v>5.988048683941285</v>
+      </c>
+      <c r="C12">
+        <v>0.3592081070491885</v>
+      </c>
+      <c r="D12">
+        <v>104.0460846863783</v>
+      </c>
+      <c r="E12">
+        <v>10.48424771735461</v>
+      </c>
+      <c r="F12">
+        <v>0.9963740950307735</v>
+      </c>
+      <c r="G12">
+        <v>0.8884918843892583</v>
+      </c>
+      <c r="H12">
+        <v>0.6685610912451053</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2.599805222592723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B13">
+        <v>5.680969264251988</v>
+      </c>
+      <c r="C13">
+        <v>0.3592081070491885</v>
+      </c>
+      <c r="D13">
+        <v>98.100594132871</v>
+      </c>
+      <c r="E13">
+        <v>9.628390760835867</v>
+      </c>
+      <c r="F13">
+        <v>0.9963740950307735</v>
+      </c>
+      <c r="G13">
+        <v>0.8884918843892583</v>
+      </c>
+      <c r="H13">
+        <v>0.6989502317562464</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2.599805222592723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B14">
+        <v>9.212382590678899</v>
+      </c>
+      <c r="C14">
+        <v>0.8381522497814398</v>
+      </c>
+      <c r="D14">
+        <v>148.6372638376833</v>
+      </c>
+      <c r="E14">
+        <v>24.81985173904357</v>
+      </c>
+      <c r="F14">
+        <v>0.9963740950307735</v>
+      </c>
+      <c r="G14">
+        <v>0.7404099036577152</v>
+      </c>
+      <c r="H14">
+        <v>0.7901176532896698</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2.599805222592723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B15">
+        <v>11.05485910881468</v>
+      </c>
+      <c r="C15">
+        <v>0.8381522497814398</v>
+      </c>
+      <c r="D15">
+        <v>161.5191600369492</v>
+      </c>
+      <c r="E15">
+        <v>35.73202793465755</v>
+      </c>
+      <c r="F15">
+        <v>1.992748190061547</v>
+      </c>
+      <c r="G15">
+        <v>2.517393672436232</v>
+      </c>
+      <c r="H15">
+        <v>0.9724524963565166</v>
+      </c>
+      <c r="I15">
+        <v>0.8464510318555497</v>
+      </c>
+      <c r="J15">
+        <v>3.466406963456964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B16">
+        <v>8.905303170989603</v>
+      </c>
+      <c r="C16">
+        <v>1.077624321147566</v>
+      </c>
+      <c r="D16">
+        <v>194.54966311199</v>
+      </c>
+      <c r="E16">
+        <v>54.34691673894023</v>
+      </c>
+      <c r="F16">
+        <v>2.98912228509232</v>
+      </c>
+      <c r="G16">
+        <v>2.221229710973145</v>
+      </c>
+      <c r="H16">
+        <v>1.06361991788994</v>
+      </c>
+      <c r="I16">
+        <v>0.8464510318555497</v>
+      </c>
+      <c r="J16">
+        <v>3.466406963456964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B17">
+        <v>15.35397098446483</v>
+      </c>
+      <c r="C17">
+        <v>1.67630449956288</v>
+      </c>
+      <c r="D17">
+        <v>219.8179979643961</v>
+      </c>
+      <c r="E17">
+        <v>61.62170086934955</v>
+      </c>
+      <c r="F17">
+        <v>4.981870475153867</v>
+      </c>
+      <c r="G17">
+        <v>6.959853094382524</v>
+      </c>
+      <c r="H17">
+        <v>1.489067885045916</v>
+      </c>
+      <c r="I17">
+        <v>4.232255159277749</v>
+      </c>
+      <c r="J17">
+        <v>1.733203481728482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B18">
+        <v>15.35397098446483</v>
+      </c>
+      <c r="C18">
+        <v>2.51445674934432</v>
+      </c>
+      <c r="D18">
+        <v>276.7956157688415</v>
+      </c>
+      <c r="E18">
+        <v>102.2749063039899</v>
+      </c>
+      <c r="F18">
+        <v>5.978244570184641</v>
+      </c>
+      <c r="G18">
+        <v>6.959853094382524</v>
+      </c>
+      <c r="H18">
+        <v>2.066461554757598</v>
+      </c>
+      <c r="I18">
+        <v>5.501931707061074</v>
+      </c>
+      <c r="J18">
+        <v>6.066212186049688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B19">
+        <v>10.59423997928073</v>
+      </c>
+      <c r="C19">
+        <v>2.514456749344319</v>
+      </c>
+      <c r="D19">
+        <v>282.7411063223487</v>
+      </c>
+      <c r="E19">
+        <v>104.8424771735461</v>
+      </c>
+      <c r="F19">
+        <v>8.967366855276961</v>
+      </c>
+      <c r="G19">
+        <v>9.329164786087214</v>
+      </c>
+      <c r="H19">
+        <v>2.157628976291021</v>
+      </c>
+      <c r="I19">
+        <v>7.194833770772172</v>
+      </c>
+      <c r="J19">
+        <v>9.532619149506653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B20">
+        <v>23.33803589638655</v>
+      </c>
+      <c r="C20">
+        <v>4.190761248907199</v>
+      </c>
+      <c r="D20">
+        <v>324.3595401969001</v>
+      </c>
+      <c r="E20">
+        <v>135.8672918473506</v>
+      </c>
+      <c r="F20">
+        <v>8.967366855276961</v>
+      </c>
+      <c r="G20">
+        <v>17.177509764859</v>
+      </c>
+      <c r="H20">
+        <v>4.436814514626607</v>
+      </c>
+      <c r="I20">
+        <v>13.5432165096888</v>
+      </c>
+      <c r="J20">
+        <v>14.7322295946921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B21">
+        <v>55.12075583422876</v>
+      </c>
+      <c r="C21">
+        <v>6.705217998251518</v>
+      </c>
+      <c r="D21">
+        <v>367.1340416790778</v>
+      </c>
+      <c r="E21">
+        <v>161.3290363037832</v>
+      </c>
+      <c r="F21">
+        <v>12.95286323540005</v>
+      </c>
+      <c r="G21">
+        <v>23.10078899412072</v>
+      </c>
+      <c r="H21">
+        <v>5.500434432516547</v>
+      </c>
+      <c r="I21">
+        <v>16.92902063711099</v>
+      </c>
+      <c r="J21">
+        <v>28.59785744851996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B22">
+        <v>63.56543987568442</v>
+      </c>
+      <c r="C22">
+        <v>8.022314390765208</v>
+      </c>
+      <c r="D22">
+        <v>440.4617585056682</v>
+      </c>
+      <c r="E22">
+        <v>221.0250590209656</v>
+      </c>
+      <c r="F22">
+        <v>13.94923733043083</v>
+      </c>
+      <c r="G22">
+        <v>26.35859257021467</v>
+      </c>
+      <c r="H22">
+        <v>6.746389193473336</v>
+      </c>
+      <c r="I22">
+        <v>21.16127579638874</v>
+      </c>
+      <c r="J22">
+        <v>53.72930793358294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B23">
+        <v>80.76188737828504</v>
+      </c>
+      <c r="C23">
+        <v>8.381522497814398</v>
+      </c>
+      <c r="D23">
+        <v>490.9984282104806</v>
+      </c>
+      <c r="E23">
+        <v>265.1016922816808</v>
+      </c>
+      <c r="F23">
+        <v>13.94923733043083</v>
+      </c>
+      <c r="G23">
+        <v>33.46652764532874</v>
+      </c>
+      <c r="H23">
+        <v>9.390244417942615</v>
+      </c>
+      <c r="I23">
+        <v>27.93288405123314</v>
+      </c>
+      <c r="J23">
+        <v>56.32911315617567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B24">
+        <v>109.3202734093896</v>
+      </c>
+      <c r="C24">
+        <v>11.37492338989097</v>
+      </c>
+      <c r="D24">
+        <v>511.8076451477563</v>
+      </c>
+      <c r="E24">
+        <v>361.1716356509098</v>
+      </c>
+      <c r="F24">
+        <v>14.9456114254616</v>
+      </c>
+      <c r="G24">
+        <v>39.09364291312738</v>
+      </c>
+      <c r="H24">
+        <v>13.34083268439096</v>
+      </c>
+      <c r="I24">
+        <v>44.43867917241636</v>
+      </c>
+      <c r="J24">
+        <v>64.12852882395384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B25">
+        <v>131.5835313368637</v>
+      </c>
+      <c r="C25">
+        <v>13.5301720321861</v>
+      </c>
+      <c r="D25">
+        <v>563.9958400063207</v>
+      </c>
+      <c r="E25">
+        <v>423.2212649985187</v>
+      </c>
+      <c r="F25">
+        <v>24.90935237576933</v>
+      </c>
+      <c r="G25">
+        <v>42.20336450848978</v>
+      </c>
+      <c r="H25">
+        <v>15.37690509863742</v>
+      </c>
+      <c r="I25">
+        <v>57.98189568210515</v>
+      </c>
+      <c r="J25">
+        <v>87.52677582728835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B26">
+        <v>135.2684843731352</v>
+      </c>
+      <c r="C26">
+        <v>16.64330895994573</v>
+      </c>
+      <c r="D26">
+        <v>573.2443808673321</v>
+      </c>
+      <c r="E26">
+        <v>557.1628786937021</v>
+      </c>
+      <c r="F26">
+        <v>45.83320837141557</v>
+      </c>
+      <c r="G26">
+        <v>42.64761045068441</v>
+      </c>
+      <c r="H26">
+        <v>21.21162007677652</v>
+      </c>
+      <c r="I26">
+        <v>89.72380937668827</v>
+      </c>
+      <c r="J26">
+        <v>122.190845461858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B27">
+        <v>174.1140309638313</v>
+      </c>
+      <c r="C27">
+        <v>21.9116945300005</v>
+      </c>
+      <c r="D27">
+        <v>559.8670271219405</v>
+      </c>
+      <c r="E27">
+        <v>639.7530749977608</v>
+      </c>
+      <c r="F27">
+        <v>56.79332341675408</v>
+      </c>
+      <c r="G27">
+        <v>51.08828335238236</v>
+      </c>
+      <c r="H27">
+        <v>27.41100474104932</v>
+      </c>
+      <c r="I27">
+        <v>118.503144459777</v>
+      </c>
+      <c r="J27">
+        <v>132.5900663522289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B28">
+        <v>202.8259567047805</v>
+      </c>
+      <c r="C28">
+        <v>29.69453684939958</v>
+      </c>
+      <c r="D28">
+        <v>604.1279012424951</v>
+      </c>
+      <c r="E28">
+        <v>720.2036289105228</v>
+      </c>
+      <c r="F28">
+        <v>83.69542398258497</v>
+      </c>
+      <c r="G28">
+        <v>70.7831867896776</v>
+      </c>
+      <c r="H28">
+        <v>35.3729595549683</v>
+      </c>
+      <c r="I28">
+        <v>152.7844112499267</v>
+      </c>
+      <c r="J28">
+        <v>185.4527725449476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B29">
+        <v>223.2467381141188</v>
+      </c>
+      <c r="C29">
+        <v>37.11817106174948</v>
+      </c>
+      <c r="D29">
+        <v>651.6918256705537</v>
+      </c>
+      <c r="E29">
+        <v>785.4627218450769</v>
+      </c>
+      <c r="F29">
+        <v>79.70992760246187</v>
+      </c>
+      <c r="G29">
+        <v>101.2880748203755</v>
+      </c>
+      <c r="H29">
+        <v>44.64164741086636</v>
+      </c>
+      <c r="I29">
+        <v>275.9430363849092</v>
+      </c>
+      <c r="J29">
+        <v>229.6494613290239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B30">
+        <v>231.2308030260405</v>
+      </c>
+      <c r="C30">
+        <v>45.02074941683163</v>
+      </c>
+      <c r="D30">
+        <v>653.8388083704315</v>
+      </c>
+      <c r="E30">
+        <v>854.7871353230951</v>
+      </c>
+      <c r="F30">
+        <v>73.73168303227723</v>
+      </c>
+      <c r="G30">
+        <v>119.3540764696237</v>
+      </c>
+      <c r="H30">
+        <v>53.51527644011958</v>
+      </c>
+      <c r="I30">
+        <v>310.224303175059</v>
+      </c>
+      <c r="J30">
+        <v>267.7799379270505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B31">
+        <v>259.9427287669897</v>
+      </c>
+      <c r="C31">
+        <v>52.56411966486458</v>
+      </c>
+      <c r="D31">
+        <v>675.1434828538328</v>
+      </c>
+      <c r="E31">
+        <v>870.6204890186918</v>
+      </c>
+      <c r="F31">
+        <v>83.69542398258497</v>
+      </c>
+      <c r="G31">
+        <v>139.6413078298451</v>
+      </c>
+      <c r="H31">
+        <v>61.8722900806834</v>
+      </c>
+      <c r="I31">
+        <v>334.3481575829422</v>
+      </c>
+      <c r="J31">
+        <v>290.3115831895208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B32">
+        <v>280.5170498861726</v>
+      </c>
+      <c r="C32">
+        <v>60.82590612699592</v>
+      </c>
+      <c r="D32">
+        <v>695.7875472757332</v>
+      </c>
+      <c r="E32">
+        <v>877.0394161925824</v>
+      </c>
+      <c r="F32">
+        <v>102.6265317881697</v>
+      </c>
+      <c r="G32">
+        <v>179.3272786658987</v>
+      </c>
+      <c r="H32">
+        <v>80.95667032168004</v>
+      </c>
+      <c r="I32">
+        <v>383.4423174305642</v>
+      </c>
+      <c r="J32">
+        <v>420.3018443191569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B33">
+        <v>369.7236213059133</v>
+      </c>
+      <c r="C33">
+        <v>69.20742862481032</v>
+      </c>
+      <c r="D33">
+        <v>664.0782643236942</v>
+      </c>
+      <c r="E33">
+        <v>909.1340520620354</v>
+      </c>
+      <c r="F33">
+        <v>133.5141287341236</v>
+      </c>
+      <c r="G33">
+        <v>235.8945953053481</v>
+      </c>
+      <c r="H33">
+        <v>96.51591026338431</v>
+      </c>
+      <c r="I33">
+        <v>495.5970791514245</v>
+      </c>
+      <c r="J33">
+        <v>467.098338325826</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B34">
+        <v>471.8275283526045</v>
+      </c>
+      <c r="C34">
+        <v>80.70208805038435</v>
+      </c>
+      <c r="D34">
+        <v>642.7735898402927</v>
+      </c>
+      <c r="E34">
+        <v>934.1678680402085</v>
+      </c>
+      <c r="F34">
+        <v>202.263941291247</v>
+      </c>
+      <c r="G34">
+        <v>281.651927351395</v>
+      </c>
+      <c r="H34">
+        <v>118.5176479934505</v>
+      </c>
+      <c r="I34">
+        <v>545.537690030902</v>
+      </c>
+      <c r="J34">
+        <v>570.2239454886707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B35">
+        <v>598.9584081039733</v>
+      </c>
+      <c r="C35">
+        <v>88.84413847683263</v>
+      </c>
+      <c r="D35">
+        <v>644.4251149940449</v>
+      </c>
+      <c r="E35">
+        <v>940.3728309749695</v>
+      </c>
+      <c r="F35">
+        <v>247.1007755676318</v>
+      </c>
+      <c r="G35">
+        <v>351.9908681988779</v>
+      </c>
+      <c r="H35">
+        <v>140.3978291614722</v>
+      </c>
+      <c r="I35">
+        <v>734.2962701346895</v>
+      </c>
+      <c r="J35">
+        <v>617.0204394953396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B36">
+        <v>696.456123855325</v>
+      </c>
+      <c r="C36">
+        <v>95.6690925107672</v>
+      </c>
+      <c r="D36">
+        <v>622.790135479893</v>
+      </c>
+      <c r="E36">
+        <v>905.282695757701</v>
+      </c>
+      <c r="F36">
+        <v>226.1769195719856</v>
+      </c>
+      <c r="G36">
+        <v>430.1781540251326</v>
+      </c>
+      <c r="H36">
+        <v>164.9826438349854</v>
+      </c>
+      <c r="I36">
+        <v>877.3464945182774</v>
+      </c>
+      <c r="J36">
+        <v>667.2833404654656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B37">
+        <v>699.3733783423734</v>
+      </c>
+      <c r="C37">
+        <v>96.86645286759783</v>
+      </c>
+      <c r="D37">
+        <v>571.2625506828296</v>
+      </c>
+      <c r="E37">
+        <v>893.7286268446981</v>
+      </c>
+      <c r="F37">
+        <v>220.198675001801</v>
+      </c>
+      <c r="G37">
+        <v>465.717829400703</v>
+      </c>
+      <c r="H37">
+        <v>174.6160013770171</v>
+      </c>
+      <c r="I37">
+        <v>1034.78638644341</v>
+      </c>
+      <c r="J37">
+        <v>643.0184917212667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B38">
+        <v>692.1570119796748</v>
+      </c>
+      <c r="C38">
+        <v>106.5650717579259</v>
+      </c>
+      <c r="D38">
+        <v>556.233671783686</v>
+      </c>
+      <c r="E38">
+        <v>846.014601518778</v>
+      </c>
+      <c r="F38">
+        <v>237.1370346173241</v>
+      </c>
+      <c r="G38">
+        <v>447.3556637899916</v>
+      </c>
+      <c r="H38">
+        <v>183.1249607201366</v>
+      </c>
+      <c r="I38">
+        <v>1175.720483247359</v>
+      </c>
+      <c r="J38">
+        <v>696.7477996548497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B39">
+        <v>758.6397063424074</v>
+      </c>
+      <c r="C39">
+        <v>108.8400564359041</v>
+      </c>
+      <c r="D39">
+        <v>530.4698793851542</v>
+      </c>
+      <c r="E39">
+        <v>791.0257920624488</v>
+      </c>
+      <c r="F39">
+        <v>281.9738688937089</v>
+      </c>
+      <c r="G39">
+        <v>479.4894536087365</v>
+      </c>
+      <c r="H39">
+        <v>206.5245989137153</v>
+      </c>
+      <c r="I39">
+        <v>1400.876457720935</v>
+      </c>
+      <c r="J39">
+        <v>887.4001826449827</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B40">
+        <v>669.7402143423561</v>
+      </c>
+      <c r="C40">
+        <v>128.5965023236095</v>
+      </c>
+      <c r="D40">
+        <v>493.4757159411086</v>
+      </c>
+      <c r="E40">
+        <v>768.9874754320913</v>
+      </c>
+      <c r="F40">
+        <v>327.8070772651244</v>
+      </c>
+      <c r="G40">
+        <v>517.1022767145485</v>
+      </c>
+      <c r="H40">
+        <v>231.200581008762</v>
+      </c>
+      <c r="I40">
+        <v>1471.555118880873</v>
+      </c>
+      <c r="J40">
+        <v>950.6621097280722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B41">
+        <v>713.9596507776148</v>
+      </c>
+      <c r="C41">
+        <v>139.2530094994021</v>
+      </c>
+      <c r="D41">
+        <v>481.7498873494692</v>
+      </c>
+      <c r="E41">
+        <v>748.8748369539007</v>
+      </c>
+      <c r="F41">
+        <v>418.4771199129248</v>
+      </c>
+      <c r="G41">
+        <v>542.7204593811053</v>
+      </c>
+      <c r="H41">
+        <v>245.2707530654203</v>
+      </c>
+      <c r="I41">
+        <v>1640.845325251983</v>
+      </c>
+      <c r="J41">
+        <v>1074.586158671659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B42">
+        <v>785.9697746947547</v>
+      </c>
+      <c r="C42">
+        <v>141.6477302130633</v>
+      </c>
+      <c r="D42">
+        <v>489.1817505413534</v>
+      </c>
+      <c r="E42">
+        <v>736.0369826061196</v>
+      </c>
+      <c r="F42">
+        <v>467.2994505694327</v>
+      </c>
+      <c r="G42">
+        <v>595.8818904637293</v>
+      </c>
+      <c r="H42">
+        <v>272.4994229634027</v>
+      </c>
+      <c r="I42">
+        <v>1767.389754514388</v>
+      </c>
+      <c r="J42">
+        <v>1362.297936638587</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B43">
+        <v>755.5689121455143</v>
+      </c>
+      <c r="C43">
+        <v>110.8755690425162</v>
+      </c>
+      <c r="D43">
+        <v>486.374157779975</v>
+      </c>
+      <c r="E43">
+        <v>698.5932407584245</v>
+      </c>
+      <c r="F43">
+        <v>408.513378962617</v>
+      </c>
+      <c r="G43">
+        <v>666.6650772534068</v>
+      </c>
+      <c r="H43">
+        <v>294.1364910073352</v>
+      </c>
+      <c r="I43">
+        <v>1791.936834438199</v>
+      </c>
+      <c r="J43">
+        <v>1485.355383841309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B44">
+        <v>624.1389205184953</v>
+      </c>
+      <c r="C44">
+        <v>120.4544518971612</v>
+      </c>
+      <c r="D44">
+        <v>457.8027726200647</v>
+      </c>
+      <c r="E44">
+        <v>676.9828526063263</v>
+      </c>
+      <c r="F44">
+        <v>306.8832212694782</v>
+      </c>
+      <c r="G44">
+        <v>659.4090601975612</v>
+      </c>
+      <c r="H44">
+        <v>282.5278393320793</v>
+      </c>
+      <c r="I44">
+        <v>1681.051749265122</v>
+      </c>
+      <c r="J44">
+        <v>1356.231724452537</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B45">
+        <v>629.2057309433687</v>
+      </c>
+      <c r="C45">
+        <v>101.1769501521881</v>
+      </c>
+      <c r="D45">
+        <v>461.7664329890696</v>
+      </c>
+      <c r="E45">
+        <v>634.1900047803891</v>
+      </c>
+      <c r="F45">
+        <v>231.1587900471394</v>
+      </c>
+      <c r="G45">
+        <v>626.6829424558903</v>
+      </c>
+      <c r="H45">
+        <v>268.4272781349098</v>
+      </c>
+      <c r="I45">
+        <v>1668.354983787289</v>
+      </c>
+      <c r="J45">
+        <v>1441.158695057233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B46">
+        <v>540.3062389433173</v>
+      </c>
+      <c r="C46">
+        <v>82.25865651426417</v>
+      </c>
+      <c r="D46">
+        <v>460.4452128660679</v>
+      </c>
+      <c r="E46">
+        <v>558.2326998893507</v>
+      </c>
+      <c r="F46">
+        <v>239.1297828073856</v>
+      </c>
+      <c r="G46">
+        <v>611.4304984405413</v>
+      </c>
+      <c r="H46">
+        <v>284.2296312007032</v>
+      </c>
+      <c r="I46">
+        <v>1628.571785290078</v>
+      </c>
+      <c r="J46">
+        <v>1416.02724457217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B47">
+        <v>609.5526480832538</v>
+      </c>
+      <c r="C47">
+        <v>124.1662690033362</v>
+      </c>
+      <c r="D47">
+        <v>461.7664329890696</v>
+      </c>
+      <c r="E47">
+        <v>562.084056193685</v>
+      </c>
+      <c r="F47">
+        <v>331.7925736452474</v>
+      </c>
+      <c r="G47">
+        <v>579.0005446603334</v>
+      </c>
+      <c r="H47">
+        <v>295.9598394380037</v>
+      </c>
+      <c r="I47">
+        <v>1587.095684729156</v>
+      </c>
+      <c r="J47">
+        <v>1231.441073768086</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B48">
+        <v>627.6703338449222</v>
+      </c>
+      <c r="C48">
+        <v>157.5726229589107</v>
+      </c>
+      <c r="D48">
+        <v>446.2420965438004</v>
+      </c>
+      <c r="E48">
+        <v>579.6291238023193</v>
+      </c>
+      <c r="F48">
+        <v>444.3828463837249</v>
+      </c>
+      <c r="G48">
+        <v>570.707953739367</v>
+      </c>
+      <c r="H48">
+        <v>378.4663559257519</v>
+      </c>
+      <c r="I48">
+        <v>2627.807228395554</v>
+      </c>
+      <c r="J48">
+        <v>1309.435230445868</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-pandas-output.xlsx
+++ b/data/covid-19-pandas-output.xlsx
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1432,7 @@
         <v>1789</v>
       </c>
       <c r="H32">
-        <v>3873</v>
+        <v>3874</v>
       </c>
       <c r="I32">
         <v>1246</v>
@@ -1464,7 +1464,7 @@
         <v>2352</v>
       </c>
       <c r="H33">
-        <v>4757</v>
+        <v>4760</v>
       </c>
       <c r="I33">
         <v>1611</v>
@@ -1496,7 +1496,7 @@
         <v>2921</v>
       </c>
       <c r="H34">
-        <v>5926</v>
+        <v>5929</v>
       </c>
       <c r="I34">
         <v>2063</v>
@@ -1528,7 +1528,7 @@
         <v>3605</v>
       </c>
       <c r="H35">
-        <v>7087</v>
+        <v>7090</v>
       </c>
       <c r="I35">
         <v>2639</v>
@@ -1560,7 +1560,7 @@
         <v>4313</v>
       </c>
       <c r="H36">
-        <v>8407</v>
+        <v>8408</v>
       </c>
       <c r="I36">
         <v>3117</v>
@@ -1656,7 +1656,7 @@
         <v>6159</v>
       </c>
       <c r="H39">
-        <v>12722</v>
+        <v>12794</v>
       </c>
       <c r="I39">
         <v>5373</v>
@@ -1688,7 +1688,7 @@
         <v>7097</v>
       </c>
       <c r="H40">
-        <v>14695</v>
+        <v>14704</v>
       </c>
       <c r="I40">
         <v>6116</v>
@@ -1720,7 +1720,7 @@
         <v>7978</v>
       </c>
       <c r="H41">
-        <v>16478</v>
+        <v>16544</v>
       </c>
       <c r="I41">
         <v>6994</v>
@@ -1752,7 +1752,7 @@
         <v>8958</v>
       </c>
       <c r="H42">
-        <v>18586</v>
+        <v>18595</v>
       </c>
       <c r="I42">
         <v>7867</v>
@@ -1784,7 +1784,7 @@
         <v>9875</v>
       </c>
       <c r="H43">
-        <v>20462</v>
+        <v>20471</v>
       </c>
       <c r="I43">
         <v>8623</v>
@@ -1816,7 +1816,7 @@
         <v>10612</v>
       </c>
       <c r="H44">
-        <v>22019</v>
+        <v>22029</v>
       </c>
       <c r="I44">
         <v>9345</v>
@@ -1848,7 +1848,7 @@
         <v>11329</v>
       </c>
       <c r="H45">
-        <v>23528</v>
+        <v>23538</v>
       </c>
       <c r="I45">
         <v>10058</v>
@@ -1880,7 +1880,7 @@
         <v>12107</v>
       </c>
       <c r="H46">
-        <v>25831</v>
+        <v>25843</v>
       </c>
       <c r="I46">
         <v>10842</v>
@@ -1912,7 +1912,7 @@
         <v>12868</v>
       </c>
       <c r="H47">
-        <v>28325</v>
+        <v>28338</v>
       </c>
       <c r="I47">
         <v>11617</v>
@@ -1944,13 +1944,205 @@
         <v>13729</v>
       </c>
       <c r="H48">
-        <v>32916</v>
+        <v>32930</v>
       </c>
       <c r="I48">
         <v>14832</v>
       </c>
       <c r="J48">
         <v>4857</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B49">
+        <v>18681</v>
+      </c>
+      <c r="C49">
+        <v>4352</v>
+      </c>
+      <c r="D49">
+        <v>22745</v>
+      </c>
+      <c r="E49">
+        <v>20002</v>
+      </c>
+      <c r="F49">
+        <v>1400</v>
+      </c>
+      <c r="G49">
+        <v>14576</v>
+      </c>
+      <c r="H49">
+        <v>36787</v>
+      </c>
+      <c r="I49">
+        <v>16557</v>
+      </c>
+      <c r="J49">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B50">
+        <v>19323</v>
+      </c>
+      <c r="C50">
+        <v>4459</v>
+      </c>
+      <c r="D50">
+        <v>23227</v>
+      </c>
+      <c r="E50">
+        <v>20043</v>
+      </c>
+      <c r="F50">
+        <v>1511</v>
+      </c>
+      <c r="G50">
+        <v>15464</v>
+      </c>
+      <c r="H50">
+        <v>38664</v>
+      </c>
+      <c r="I50">
+        <v>16612</v>
+      </c>
+      <c r="J50">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B51">
+        <v>19718</v>
+      </c>
+      <c r="C51">
+        <v>4586</v>
+      </c>
+      <c r="D51">
+        <v>23660</v>
+      </c>
+      <c r="E51">
+        <v>20453</v>
+      </c>
+      <c r="F51">
+        <v>1540</v>
+      </c>
+      <c r="G51">
+        <v>16060</v>
+      </c>
+      <c r="H51">
+        <v>40661</v>
+      </c>
+      <c r="I51">
+        <v>17897</v>
+      </c>
+      <c r="J51">
+        <v>5683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B52">
+        <v>20265</v>
+      </c>
+      <c r="C52">
+        <v>4862</v>
+      </c>
+      <c r="D52">
+        <v>24114</v>
+      </c>
+      <c r="E52">
+        <v>20852</v>
+      </c>
+      <c r="F52">
+        <v>1580</v>
+      </c>
+      <c r="G52">
+        <v>16509</v>
+      </c>
+      <c r="H52">
+        <v>42094</v>
+      </c>
+      <c r="I52">
+        <v>18563</v>
+      </c>
+      <c r="J52">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B53">
+        <v>20796</v>
+      </c>
+      <c r="C53">
+        <v>5033</v>
+      </c>
+      <c r="D53">
+        <v>24648</v>
+      </c>
+      <c r="E53">
+        <v>21282</v>
+      </c>
+      <c r="F53">
+        <v>1765</v>
+      </c>
+      <c r="G53">
+        <v>17337</v>
+      </c>
+      <c r="H53">
+        <v>44444</v>
+      </c>
+      <c r="I53">
+        <v>19101</v>
+      </c>
+      <c r="J53">
+        <v>5998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B54">
+        <v>21340</v>
+      </c>
+      <c r="C54">
+        <v>5279</v>
+      </c>
+      <c r="D54">
+        <v>25085</v>
+      </c>
+      <c r="E54">
+        <v>21717</v>
+      </c>
+      <c r="F54">
+        <v>1937</v>
+      </c>
+      <c r="G54">
+        <v>18100</v>
+      </c>
+      <c r="H54">
+        <v>46583</v>
+      </c>
+      <c r="I54">
+        <v>19413</v>
+      </c>
+      <c r="J54">
+        <v>6262</v>
       </c>
     </row>
   </sheetData>
@@ -1960,7 +2152,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2981,7 +3173,7 @@
         <v>1324.593317643653</v>
       </c>
       <c r="H32">
-        <v>588.4857059982484</v>
+        <v>588.6376517008041</v>
       </c>
       <c r="I32">
         <v>2636.694964230037</v>
@@ -3013,7 +3205,7 @@
         <v>1741.444093402946</v>
       </c>
       <c r="H33">
-        <v>722.8057070574922</v>
+        <v>723.2615441651593</v>
       </c>
       <c r="I33">
         <v>3409.081530798227</v>
@@ -3045,7 +3237,7 @@
         <v>2162.737328584186</v>
       </c>
       <c r="H34">
-        <v>900.4302333451122</v>
+        <v>900.8860704527793</v>
       </c>
       <c r="I34">
         <v>4365.571196794997</v>
@@ -3077,7 +3269,7 @@
         <v>2669.177702686064</v>
       </c>
       <c r="H35">
-        <v>1076.839194012287</v>
+        <v>1077.295031119954</v>
       </c>
       <c r="I35">
         <v>5584.46068266699</v>
@@ -3109,7 +3301,7 @@
         <v>3193.387914475726</v>
       </c>
       <c r="H36">
-        <v>1277.407521385818</v>
+        <v>1277.559467088374</v>
       </c>
       <c r="I36">
         <v>6595.969665734371</v>
@@ -3205,7 +3397,7 @@
         <v>4560.184596627869</v>
       </c>
       <c r="H39">
-        <v>1933.053227913688</v>
+        <v>1943.993318497699</v>
       </c>
       <c r="I39">
         <v>11369.95348539967</v>
@@ -3237,7 +3429,7 @@
         <v>5254.689086258805</v>
       </c>
       <c r="H40">
-        <v>2232.842099056096</v>
+        <v>2234.209610379097</v>
       </c>
       <c r="I40">
         <v>12942.23627707136</v>
@@ -3269,7 +3461,7 @@
         <v>5906.990211381252</v>
       </c>
       <c r="H41">
-        <v>2503.761286712919</v>
+        <v>2513.789703081596</v>
       </c>
       <c r="I41">
         <v>14800.19629199429</v>
@@ -3301,7 +3493,7 @@
         <v>6632.591916965814</v>
       </c>
       <c r="H42">
-        <v>2824.062827700347</v>
+        <v>2825.430339023349</v>
       </c>
       <c r="I42">
         <v>16647.57566901902</v>
@@ -3333,7 +3525,7 @@
         <v>7311.547798619938</v>
       </c>
       <c r="H43">
-        <v>3109.112965694851</v>
+        <v>3110.480477017853</v>
       </c>
       <c r="I43">
         <v>18247.36811922601</v>
@@ -3365,7 +3557,7 @@
         <v>7857.229897615674</v>
       </c>
       <c r="H44">
-        <v>3345.692424574085</v>
+        <v>3347.211881599642</v>
       </c>
       <c r="I44">
         <v>19775.21223172528</v>
@@ -3397,7 +3589,7 @@
         <v>8388.103798538257</v>
       </c>
       <c r="H45">
-        <v>3574.978489730645</v>
+        <v>3576.497946756202</v>
       </c>
       <c r="I45">
         <v>21284.0111960078</v>
@@ -3429,7 +3621,7 @@
         <v>8964.142703583959</v>
       </c>
       <c r="H46">
-        <v>3924.909442716435</v>
+        <v>3926.732791147103</v>
       </c>
       <c r="I46">
         <v>22943.05521844468</v>
@@ -3461,7 +3653,7 @@
         <v>9527.59464026748</v>
       </c>
       <c r="H47">
-        <v>4303.862024890365</v>
+        <v>4305.83731902359</v>
       </c>
       <c r="I47">
         <v>24583.0540926648</v>
@@ -3493,13 +3685,205 @@
         <v>10165.08756731677</v>
       </c>
       <c r="H48">
-        <v>5001.444745323611</v>
+        <v>5003.57198515939</v>
       </c>
       <c r="I48">
         <v>31386.40426120378</v>
       </c>
       <c r="J48">
         <v>21045.42327688809</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B49">
+        <v>14341.37659803938</v>
+      </c>
+      <c r="C49">
+        <v>2605.456136463447</v>
+      </c>
+      <c r="D49">
+        <v>18781.96981104504</v>
+      </c>
+      <c r="E49">
+        <v>21398.56355535989</v>
+      </c>
+      <c r="F49">
+        <v>6974.618665215414</v>
+      </c>
+      <c r="G49">
+        <v>10792.21475571486</v>
+      </c>
+      <c r="H49">
+        <v>5589.626559916747</v>
+      </c>
+      <c r="I49">
+        <v>35036.72433608084</v>
+      </c>
+      <c r="J49">
+        <v>22371.32394041038</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B50">
+        <v>14834.2390666407</v>
+      </c>
+      <c r="C50">
+        <v>2669.514915553886</v>
+      </c>
+      <c r="D50">
+        <v>19179.98737309928</v>
+      </c>
+      <c r="E50">
+        <v>21442.42622438147</v>
+      </c>
+      <c r="F50">
+        <v>7527.606287957493</v>
+      </c>
+      <c r="G50">
+        <v>11449.69875016291</v>
+      </c>
+      <c r="H50">
+        <v>5874.828643613807</v>
+      </c>
+      <c r="I50">
+        <v>35153.11135296098</v>
+      </c>
+      <c r="J50">
+        <v>23627.89646466353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B51">
+        <v>15137.47999358388</v>
+      </c>
+      <c r="C51">
+        <v>2745.547298212631</v>
+      </c>
+      <c r="D51">
+        <v>19537.5425688866</v>
+      </c>
+      <c r="E51">
+        <v>21881.05291459733</v>
+      </c>
+      <c r="F51">
+        <v>7672.080531736955</v>
+      </c>
+      <c r="G51">
+        <v>11890.98305274291</v>
+      </c>
+      <c r="H51">
+        <v>6178.264211617551</v>
+      </c>
+      <c r="I51">
+        <v>37872.33529279693</v>
+      </c>
+      <c r="J51">
+        <v>24624.48846665741</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B52">
+        <v>15557.41110000899</v>
+      </c>
+      <c r="C52">
+        <v>2910.783027455258</v>
+      </c>
+      <c r="D52">
+        <v>19912.43877878831</v>
+      </c>
+      <c r="E52">
+        <v>22307.91157166105</v>
+      </c>
+      <c r="F52">
+        <v>7871.35535074311</v>
+      </c>
+      <c r="G52">
+        <v>12223.42709948522</v>
+      </c>
+      <c r="H52">
+        <v>6396.002403379878</v>
+      </c>
+      <c r="I52">
+        <v>39281.67626083642</v>
+      </c>
+      <c r="J52">
+        <v>25252.77472878398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B53">
+        <v>15965.05902964654</v>
+      </c>
+      <c r="C53">
+        <v>3013.157337964276</v>
+      </c>
+      <c r="D53">
+        <v>20353.3959948401</v>
+      </c>
+      <c r="E53">
+        <v>22767.93468578988</v>
+      </c>
+      <c r="F53">
+        <v>8793.001388646575</v>
+      </c>
+      <c r="G53">
+        <v>12836.48649971381</v>
+      </c>
+      <c r="H53">
+        <v>6753.074804385787</v>
+      </c>
+      <c r="I53">
+        <v>40420.15289868214</v>
+      </c>
+      <c r="J53">
+        <v>25989.38620851859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B54">
+        <v>16382.68704042398</v>
+      </c>
+      <c r="C54">
+        <v>3160.432661854444</v>
+      </c>
+      <c r="D54">
+        <v>20714.25424093492</v>
+      </c>
+      <c r="E54">
+        <v>23233.30690589694</v>
+      </c>
+      <c r="F54">
+        <v>9649.883110373041</v>
+      </c>
+      <c r="G54">
+        <v>13401.41925620465</v>
+      </c>
+      <c r="H54">
+        <v>7078.086662152441</v>
+      </c>
+      <c r="I54">
+        <v>41080.38470352947</v>
+      </c>
+      <c r="J54">
+        <v>27133.30050645939</v>
       </c>
     </row>
   </sheetData>
@@ -3509,7 +3893,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4503,7 +4887,7 @@
         <v>381</v>
       </c>
       <c r="H32">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I32">
         <v>202</v>
@@ -4535,7 +4919,7 @@
         <v>563</v>
       </c>
       <c r="H33">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="I33">
         <v>365</v>
@@ -4631,7 +5015,7 @@
         <v>708</v>
       </c>
       <c r="H36">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="I36">
         <v>478</v>
@@ -4663,7 +5047,7 @@
         <v>621</v>
       </c>
       <c r="H37">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I37">
         <v>574</v>
@@ -4727,7 +5111,7 @@
         <v>786</v>
       </c>
       <c r="H39">
-        <v>1939</v>
+        <v>2011</v>
       </c>
       <c r="I39">
         <v>984</v>
@@ -4759,7 +5143,7 @@
         <v>938</v>
       </c>
       <c r="H40">
-        <v>1973</v>
+        <v>1910</v>
       </c>
       <c r="I40">
         <v>743</v>
@@ -4791,7 +5175,7 @@
         <v>881</v>
       </c>
       <c r="H41">
-        <v>1783</v>
+        <v>1840</v>
       </c>
       <c r="I41">
         <v>878</v>
@@ -4823,7 +5207,7 @@
         <v>980</v>
       </c>
       <c r="H42">
-        <v>2108</v>
+        <v>2051</v>
       </c>
       <c r="I42">
         <v>873</v>
@@ -4887,7 +5271,7 @@
         <v>737</v>
       </c>
       <c r="H44">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="I44">
         <v>722</v>
@@ -4951,7 +5335,7 @@
         <v>778</v>
       </c>
       <c r="H46">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="I46">
         <v>784</v>
@@ -4983,7 +5367,7 @@
         <v>761</v>
       </c>
       <c r="H47">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="I47">
         <v>775</v>
@@ -5015,13 +5399,205 @@
         <v>861</v>
       </c>
       <c r="H48">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="I48">
         <v>3215</v>
       </c>
       <c r="J48">
         <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B49">
+        <v>761</v>
+      </c>
+      <c r="C49">
+        <v>300</v>
+      </c>
+      <c r="D49">
+        <v>575</v>
+      </c>
+      <c r="E49">
+        <v>687</v>
+      </c>
+      <c r="F49">
+        <v>67</v>
+      </c>
+      <c r="G49">
+        <v>847</v>
+      </c>
+      <c r="H49">
+        <v>3857</v>
+      </c>
+      <c r="I49">
+        <v>1725</v>
+      </c>
+      <c r="J49">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B50">
+        <v>642</v>
+      </c>
+      <c r="C50">
+        <v>107</v>
+      </c>
+      <c r="D50">
+        <v>482</v>
+      </c>
+      <c r="E50">
+        <v>41</v>
+      </c>
+      <c r="F50">
+        <v>111</v>
+      </c>
+      <c r="G50">
+        <v>888</v>
+      </c>
+      <c r="H50">
+        <v>1877</v>
+      </c>
+      <c r="I50">
+        <v>55</v>
+      </c>
+      <c r="J50">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B51">
+        <v>395</v>
+      </c>
+      <c r="C51">
+        <v>127</v>
+      </c>
+      <c r="D51">
+        <v>433</v>
+      </c>
+      <c r="E51">
+        <v>410</v>
+      </c>
+      <c r="F51">
+        <v>29</v>
+      </c>
+      <c r="G51">
+        <v>596</v>
+      </c>
+      <c r="H51">
+        <v>1997</v>
+      </c>
+      <c r="I51">
+        <v>1285</v>
+      </c>
+      <c r="J51">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B52">
+        <v>547</v>
+      </c>
+      <c r="C52">
+        <v>276</v>
+      </c>
+      <c r="D52">
+        <v>454</v>
+      </c>
+      <c r="E52">
+        <v>399</v>
+      </c>
+      <c r="F52">
+        <v>40</v>
+      </c>
+      <c r="G52">
+        <v>449</v>
+      </c>
+      <c r="H52">
+        <v>1433</v>
+      </c>
+      <c r="I52">
+        <v>666</v>
+      </c>
+      <c r="J52">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B53">
+        <v>531</v>
+      </c>
+      <c r="C53">
+        <v>171</v>
+      </c>
+      <c r="D53">
+        <v>534</v>
+      </c>
+      <c r="E53">
+        <v>430</v>
+      </c>
+      <c r="F53">
+        <v>185</v>
+      </c>
+      <c r="G53">
+        <v>828</v>
+      </c>
+      <c r="H53">
+        <v>2350</v>
+      </c>
+      <c r="I53">
+        <v>538</v>
+      </c>
+      <c r="J53">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B54">
+        <v>544</v>
+      </c>
+      <c r="C54">
+        <v>246</v>
+      </c>
+      <c r="D54">
+        <v>437</v>
+      </c>
+      <c r="E54">
+        <v>435</v>
+      </c>
+      <c r="F54">
+        <v>172</v>
+      </c>
+      <c r="G54">
+        <v>763</v>
+      </c>
+      <c r="H54">
+        <v>2139</v>
+      </c>
+      <c r="I54">
+        <v>312</v>
+      </c>
+      <c r="J54">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5031,7 +5607,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6025,7 +6601,7 @@
         <v>282.0961732935895</v>
       </c>
       <c r="H32">
-        <v>135.9914037873566</v>
+        <v>136.1433494899123</v>
       </c>
       <c r="I32">
         <v>427.4577710870526</v>
@@ -6057,7 +6633,7 @@
         <v>416.8507757592937</v>
       </c>
       <c r="H33">
-        <v>134.3200010592439</v>
+        <v>134.6238924643553</v>
       </c>
       <c r="I33">
         <v>772.3865665681891</v>
@@ -6153,7 +6729,7 @@
         <v>524.2102117896625</v>
       </c>
       <c r="H36">
-        <v>200.5683273735316</v>
+        <v>200.2644359684202</v>
       </c>
       <c r="I36">
         <v>1011.508983067382</v>
@@ -6185,7 +6761,7 @@
         <v>459.7945501714412</v>
       </c>
       <c r="H37">
-        <v>184.1581914975154</v>
+        <v>184.0062457949597</v>
       </c>
       <c r="I37">
         <v>1214.657230712714</v>
@@ -6249,7 +6825,7 @@
         <v>581.9621842749642</v>
       </c>
       <c r="H39">
-        <v>294.6227172555135</v>
+        <v>305.5628078395243</v>
       </c>
       <c r="I39">
         <v>2082.269538364652</v>
@@ -6281,7 +6857,7 @@
         <v>694.504489630937</v>
       </c>
       <c r="H40">
-        <v>299.7888711424075</v>
+        <v>290.216291881398</v>
       </c>
       <c r="I40">
         <v>1572.282791671684</v>
@@ -6313,7 +6889,7 @@
         <v>652.3011251224472</v>
       </c>
       <c r="H41">
-        <v>270.9191876568233</v>
+        <v>279.5800927024986</v>
       </c>
       <c r="I41">
         <v>1857.960014922932</v>
@@ -6345,7 +6921,7 @@
         <v>725.601705584561</v>
       </c>
       <c r="H42">
-        <v>320.3015409874277</v>
+        <v>311.6406359417525</v>
       </c>
       <c r="I42">
         <v>1847.379377024737</v>
@@ -6409,7 +6985,7 @@
         <v>545.6820989957362</v>
       </c>
       <c r="H44">
-        <v>236.5794588792338</v>
+        <v>236.7314045817895</v>
       </c>
       <c r="I44">
         <v>1527.844112499267</v>
@@ -6473,7 +7049,7 @@
         <v>576.0389050457026</v>
       </c>
       <c r="H46">
-        <v>349.9309529857903</v>
+        <v>350.2348443909017</v>
       </c>
       <c r="I46">
         <v>1659.044022436877</v>
@@ -6505,7 +7081,7 @@
         <v>563.4519366835214</v>
       </c>
       <c r="H47">
-        <v>378.9525821739301</v>
+        <v>379.1045278764859</v>
       </c>
       <c r="I47">
         <v>1639.998874220128</v>
@@ -6537,13 +7113,205 @@
         <v>637.4929270492929</v>
       </c>
       <c r="H48">
-        <v>697.5827204332451</v>
+        <v>697.7346661358008</v>
       </c>
       <c r="I48">
         <v>6803.350168538981</v>
       </c>
       <c r="J48">
         <v>1806.864629701943</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B49">
+        <v>584.218595958887</v>
+      </c>
+      <c r="C49">
+        <v>179.6040535245943</v>
+      </c>
+      <c r="D49">
+        <v>474.8134817037106</v>
+      </c>
+      <c r="E49">
+        <v>734.9671614104711</v>
+      </c>
+      <c r="F49">
+        <v>333.7853218353091</v>
+      </c>
+      <c r="G49">
+        <v>627.1271883980849</v>
+      </c>
+      <c r="H49">
+        <v>586.054574757357</v>
+      </c>
+      <c r="I49">
+        <v>3650.320074877058</v>
+      </c>
+      <c r="J49">
+        <v>1325.900663522289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B50">
+        <v>492.8624686013212</v>
+      </c>
+      <c r="C50">
+        <v>64.05877909043862</v>
+      </c>
+      <c r="D50">
+        <v>398.0175620542409</v>
+      </c>
+      <c r="E50">
+        <v>43.86266902158561</v>
+      </c>
+      <c r="F50">
+        <v>552.9876227420792</v>
+      </c>
+      <c r="G50">
+        <v>657.4839944480512</v>
+      </c>
+      <c r="H50">
+        <v>285.2020836970597</v>
+      </c>
+      <c r="I50">
+        <v>116.3870168801381</v>
+      </c>
+      <c r="J50">
+        <v>1256.57252425315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B51">
+        <v>303.2409269431805</v>
+      </c>
+      <c r="C51">
+        <v>76.03238265874491</v>
+      </c>
+      <c r="D51">
+        <v>357.555195787316</v>
+      </c>
+      <c r="E51">
+        <v>438.6266902158561</v>
+      </c>
+      <c r="F51">
+        <v>144.4742437794621</v>
+      </c>
+      <c r="G51">
+        <v>441.2843025799983</v>
+      </c>
+      <c r="H51">
+        <v>303.4355680037444</v>
+      </c>
+      <c r="I51">
+        <v>2719.223939835953</v>
+      </c>
+      <c r="J51">
+        <v>996.5920019938773</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B52">
+        <v>419.9311064251132</v>
+      </c>
+      <c r="C52">
+        <v>165.2357292426267</v>
+      </c>
+      <c r="D52">
+        <v>374.8962099017124</v>
+      </c>
+      <c r="E52">
+        <v>426.8586570637234</v>
+      </c>
+      <c r="F52">
+        <v>199.2748190061547</v>
+      </c>
+      <c r="G52">
+        <v>332.4440467423142</v>
+      </c>
+      <c r="H52">
+        <v>217.7381917623263</v>
+      </c>
+      <c r="I52">
+        <v>1409.34096803949</v>
+      </c>
+      <c r="J52">
+        <v>628.2862621265748</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B53">
+        <v>407.6479296375414</v>
+      </c>
+      <c r="C53">
+        <v>102.3743105090187</v>
+      </c>
+      <c r="D53">
+        <v>440.9572160517939</v>
+      </c>
+      <c r="E53">
+        <v>460.0231141288247</v>
+      </c>
+      <c r="F53">
+        <v>921.6460379034654</v>
+      </c>
+      <c r="G53">
+        <v>613.0594002285883</v>
+      </c>
+      <c r="H53">
+        <v>357.0724010059085</v>
+      </c>
+      <c r="I53">
+        <v>1138.476637845714</v>
+      </c>
+      <c r="J53">
+        <v>736.6114797346049</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B54">
+        <v>417.6280107774435</v>
+      </c>
+      <c r="C54">
+        <v>147.2753238901673</v>
+      </c>
+      <c r="D54">
+        <v>360.8582460948201</v>
+      </c>
+      <c r="E54">
+        <v>465.3722201070669</v>
+      </c>
+      <c r="F54">
+        <v>856.8817217264651</v>
+      </c>
+      <c r="G54">
+        <v>564.9327564908368</v>
+      </c>
+      <c r="H54">
+        <v>325.0118577666546</v>
+      </c>
+      <c r="I54">
+        <v>660.2318048473288</v>
+      </c>
+      <c r="J54">
+        <v>1143.914297940798</v>
       </c>
     </row>
   </sheetData>
@@ -6553,7 +7321,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7439,7 +8207,7 @@
         <v>179.3272786658987</v>
       </c>
       <c r="H32">
-        <v>80.95667032168004</v>
+        <v>80.98705946219118</v>
       </c>
       <c r="I32">
         <v>383.4423174305642</v>
@@ -7471,7 +8239,7 @@
         <v>235.8945953053481</v>
       </c>
       <c r="H33">
-        <v>96.51591026338431</v>
+        <v>96.60707768491774</v>
       </c>
       <c r="I33">
         <v>495.5970791514245</v>
@@ -7503,7 +8271,7 @@
         <v>281.651927351395</v>
       </c>
       <c r="H34">
-        <v>118.5176479934505</v>
+        <v>118.608815414984</v>
       </c>
       <c r="I34">
         <v>545.537690030902</v>
@@ -7535,7 +8303,7 @@
         <v>351.9908681988779</v>
       </c>
       <c r="H35">
-        <v>140.3978291614722</v>
+        <v>140.4889965830056</v>
       </c>
       <c r="I35">
         <v>734.2962701346895</v>
@@ -7567,7 +8335,7 @@
         <v>430.1781540251326</v>
       </c>
       <c r="H36">
-        <v>164.9826438349854</v>
+        <v>165.0130329754965</v>
       </c>
       <c r="I36">
         <v>877.3464945182774</v>
@@ -7599,7 +8367,7 @@
         <v>465.717829400703</v>
       </c>
       <c r="H37">
-        <v>174.6160013770171</v>
+        <v>174.5856122365059</v>
       </c>
       <c r="I37">
         <v>1034.78638644341</v>
@@ -7631,7 +8399,7 @@
         <v>447.3556637899916</v>
       </c>
       <c r="H38">
-        <v>183.1249607201366</v>
+        <v>183.0337932986032</v>
       </c>
       <c r="I38">
         <v>1175.720483247359</v>
@@ -7663,7 +8431,7 @@
         <v>479.4894536087365</v>
       </c>
       <c r="H39">
-        <v>206.5245989137153</v>
+        <v>208.6214496089841</v>
       </c>
       <c r="I39">
         <v>1400.876457720935</v>
@@ -7695,7 +8463,7 @@
         <v>517.1022767145485</v>
       </c>
       <c r="H40">
-        <v>231.200581008762</v>
+        <v>231.3829158518287</v>
       </c>
       <c r="I40">
         <v>1471.555118880873</v>
@@ -7727,7 +8495,7 @@
         <v>542.7204593811053</v>
       </c>
       <c r="H41">
-        <v>245.2707530654203</v>
+        <v>247.2460471986444</v>
       </c>
       <c r="I41">
         <v>1640.845325251983</v>
@@ -7759,7 +8527,7 @@
         <v>595.8818904637293</v>
       </c>
       <c r="H42">
-        <v>272.4994229634027</v>
+        <v>272.772925228003</v>
       </c>
       <c r="I42">
         <v>1767.389754514388</v>
@@ -7791,7 +8559,7 @@
         <v>666.6650772534068</v>
       </c>
       <c r="H43">
-        <v>294.1364910073352</v>
+        <v>294.4099932719355</v>
       </c>
       <c r="I43">
         <v>1791.936834438199</v>
@@ -7823,7 +8591,7 @@
         <v>659.4090601975612</v>
       </c>
       <c r="H44">
-        <v>282.5278393320793</v>
+        <v>280.6437126203886</v>
       </c>
       <c r="I44">
         <v>1681.051749265122</v>
@@ -7855,7 +8623,7 @@
         <v>626.6829424558903</v>
       </c>
       <c r="H45">
-        <v>268.4272781349098</v>
+        <v>268.4576672754209</v>
       </c>
       <c r="I45">
         <v>1668.354983787289</v>
@@ -7887,7 +8655,7 @@
         <v>611.4304984405413</v>
       </c>
       <c r="H46">
-        <v>284.2296312007032</v>
+        <v>282.5886176131016</v>
       </c>
       <c r="I46">
         <v>1628.571785290078</v>
@@ -7919,7 +8687,7 @@
         <v>579.0005446603334</v>
       </c>
       <c r="H47">
-        <v>295.9598394380037</v>
+        <v>296.0813960000483</v>
       </c>
       <c r="I47">
         <v>1587.095684729156</v>
@@ -7951,13 +8719,205 @@
         <v>570.707953739367</v>
       </c>
       <c r="H48">
-        <v>378.4663559257519</v>
+        <v>378.6183016283077</v>
       </c>
       <c r="I48">
         <v>2627.807228395554</v>
       </c>
       <c r="J48">
         <v>1309.435230445868</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B49">
+        <v>658.3782758138519</v>
+      </c>
+      <c r="C49">
+        <v>159.2489274584736</v>
+      </c>
+      <c r="D49">
+        <v>470.0240587578297</v>
+      </c>
+      <c r="E49">
+        <v>597.6021198892129</v>
+      </c>
+      <c r="F49">
+        <v>499.1834216104174</v>
+      </c>
+      <c r="G49">
+        <v>586.9969716198368</v>
+      </c>
+      <c r="H49">
+        <v>448.4829356634211</v>
+      </c>
+      <c r="I49">
+        <v>3052.302420871113</v>
+      </c>
+      <c r="J49">
+        <v>1354.498520970808</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B50">
+        <v>668.818976083288</v>
+      </c>
+      <c r="C50">
+        <v>151.4660851390745</v>
+      </c>
+      <c r="D50">
+        <v>456.1512474663126</v>
+      </c>
+      <c r="E50">
+        <v>489.3362148895918</v>
+      </c>
+      <c r="F50">
+        <v>589.8534642582177</v>
+      </c>
+      <c r="G50">
+        <v>612.3189903249306</v>
+      </c>
+      <c r="H50">
+        <v>459.6661393715211</v>
+      </c>
+      <c r="I50">
+        <v>2773.820031390637</v>
+      </c>
+      <c r="J50">
+        <v>1343.232698339573</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B51">
+        <v>612.4699025703021</v>
+      </c>
+      <c r="C51">
+        <v>154.6989581025172</v>
+      </c>
+      <c r="D51">
+        <v>428.2404723679031</v>
+      </c>
+      <c r="E51">
+        <v>512.8722811938571</v>
+      </c>
+      <c r="F51">
+        <v>505.161666180602</v>
+      </c>
+      <c r="G51">
+        <v>585.3680698317899</v>
+      </c>
+      <c r="H51">
+        <v>450.3062840940896</v>
+      </c>
+      <c r="I51">
+        <v>2985.856014870452</v>
+      </c>
+      <c r="J51">
+        <v>1322.434256558831</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B52">
+        <v>475.6660210987204</v>
+      </c>
+      <c r="C52">
+        <v>126.6807257526805</v>
+      </c>
+      <c r="D52">
+        <v>407.7615604613778</v>
+      </c>
+      <c r="E52">
+        <v>458.7393286940467</v>
+      </c>
+      <c r="F52">
+        <v>375.6330338266014</v>
+      </c>
+      <c r="G52">
+        <v>539.1664918435484</v>
+      </c>
+      <c r="H52">
+        <v>418.0330168712577</v>
+      </c>
+      <c r="I52">
+        <v>2939.724433634324</v>
+      </c>
+      <c r="J52">
+        <v>1202.843216319566</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B53">
+        <v>441.5802055132084</v>
+      </c>
+      <c r="C53">
+        <v>117.4610510050847</v>
+      </c>
+      <c r="D53">
+        <v>409.2479330997547</v>
+      </c>
+      <c r="E53">
+        <v>420.8676583680923</v>
+      </c>
+      <c r="F53">
+        <v>430.4336090532939</v>
+      </c>
+      <c r="G53">
+        <v>534.2797864794076</v>
+      </c>
+      <c r="H53">
+        <v>349.9005638452792</v>
+      </c>
+      <c r="I53">
+        <v>1806.749727495671</v>
+      </c>
+      <c r="J53">
+        <v>988.7925863260986</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B54">
+        <v>408.2620884769198</v>
+      </c>
+      <c r="C54">
+        <v>110.9953050781993</v>
+      </c>
+      <c r="D54">
+        <v>386.4568859779765</v>
+      </c>
+      <c r="E54">
+        <v>366.9486701074114</v>
+      </c>
+      <c r="F54">
+        <v>535.0528890315251</v>
+      </c>
+      <c r="G54">
+        <v>521.840900097958</v>
+      </c>
+      <c r="H54">
+        <v>297.6920204471388</v>
+      </c>
+      <c r="I54">
+        <v>1208.732073489725</v>
+      </c>
+      <c r="J54">
+        <v>952.3953132098004</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-pandas-output.xlsx
+++ b/data/covid-19-pandas-output.xlsx
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2136,13 +2136,45 @@
         <v>18100</v>
       </c>
       <c r="H54">
-        <v>46583</v>
+        <v>46622</v>
       </c>
       <c r="I54">
         <v>19413</v>
       </c>
       <c r="J54">
         <v>6262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B55">
+        <v>21856</v>
+      </c>
+      <c r="C55">
+        <v>5575</v>
+      </c>
+      <c r="D55">
+        <v>25549</v>
+      </c>
+      <c r="E55">
+        <v>22157</v>
+      </c>
+      <c r="F55">
+        <v>2021</v>
+      </c>
+      <c r="G55">
+        <v>18738</v>
+      </c>
+      <c r="H55">
+        <v>49954</v>
+      </c>
+      <c r="I55">
+        <v>20973</v>
+      </c>
+      <c r="J55">
+        <v>6490</v>
       </c>
     </row>
   </sheetData>
@@ -2152,7 +2184,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3877,13 +3909,45 @@
         <v>13401.41925620465</v>
       </c>
       <c r="H54">
-        <v>7078.086662152441</v>
+        <v>7084.012544552113</v>
       </c>
       <c r="I54">
         <v>41080.38470352947</v>
       </c>
       <c r="J54">
         <v>27133.30050645939</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B55">
+        <v>16778.81949182317</v>
+      </c>
+      <c r="C55">
+        <v>3337.641994665376</v>
+      </c>
+      <c r="D55">
+        <v>21097.4080766054</v>
+      </c>
+      <c r="E55">
+        <v>23704.02823198225</v>
+      </c>
+      <c r="F55">
+        <v>10068.36023028597</v>
+      </c>
+      <c r="G55">
+        <v>13873.80077473827</v>
+      </c>
+      <c r="H55">
+        <v>7590.295625467725</v>
+      </c>
+      <c r="I55">
+        <v>44381.54372776611</v>
+      </c>
+      <c r="J55">
+        <v>28121.22649104462</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +3957,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5591,13 +5655,45 @@
         <v>763</v>
       </c>
       <c r="H54">
-        <v>2139</v>
+        <v>2178</v>
       </c>
       <c r="I54">
         <v>312</v>
       </c>
       <c r="J54">
         <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B55">
+        <v>516</v>
+      </c>
+      <c r="C55">
+        <v>296</v>
+      </c>
+      <c r="D55">
+        <v>464</v>
+      </c>
+      <c r="E55">
+        <v>440</v>
+      </c>
+      <c r="F55">
+        <v>84</v>
+      </c>
+      <c r="G55">
+        <v>638</v>
+      </c>
+      <c r="H55">
+        <v>3332</v>
+      </c>
+      <c r="I55">
+        <v>1560</v>
+      </c>
+      <c r="J55">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5607,7 +5703,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7305,13 +7401,45 @@
         <v>564.9327564908368</v>
       </c>
       <c r="H54">
-        <v>325.0118577666546</v>
+        <v>330.9377401663271</v>
       </c>
       <c r="I54">
         <v>660.2318048473288</v>
       </c>
       <c r="J54">
         <v>1143.914297940798</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B55">
+        <v>396.1324513991927</v>
+      </c>
+      <c r="C55">
+        <v>177.209332810933</v>
+      </c>
+      <c r="D55">
+        <v>383.1538356704726</v>
+      </c>
+      <c r="E55">
+        <v>470.721326085309</v>
+      </c>
+      <c r="F55">
+        <v>418.4771199129248</v>
+      </c>
+      <c r="G55">
+        <v>472.3815185336223</v>
+      </c>
+      <c r="H55">
+        <v>506.2830809156115</v>
+      </c>
+      <c r="I55">
+        <v>3301.159024236644</v>
+      </c>
+      <c r="J55">
+        <v>987.9259845852348</v>
       </c>
     </row>
   </sheetData>
@@ -7321,7 +7449,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8911,13 +9039,45 @@
         <v>521.840900097958</v>
       </c>
       <c r="H54">
-        <v>297.6920204471388</v>
+        <v>298.8771969270732</v>
       </c>
       <c r="I54">
         <v>1208.732073489725</v>
       </c>
       <c r="J54">
         <v>952.3953132098004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B55">
+        <v>388.9160850364941</v>
+      </c>
+      <c r="C55">
+        <v>133.6254158222982</v>
+      </c>
+      <c r="D55">
+        <v>383.4841407012229</v>
+      </c>
+      <c r="E55">
+        <v>452.3204015201561</v>
+      </c>
+      <c r="F55">
+        <v>508.1507884656942</v>
+      </c>
+      <c r="G55">
+        <v>484.8204049150721</v>
+      </c>
+      <c r="H55">
+        <v>343.0933963707836</v>
+      </c>
+      <c r="I55">
+        <v>1845.686474961026</v>
+      </c>
+      <c r="J55">
+        <v>898.6660052762174</v>
       </c>
     </row>
   </sheetData>
